--- a/data/raw/plant/petal_weight_3.xlsx
+++ b/data/raw/plant/petal_weight_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFC139C-FD49-4FD5-AC5D-BF1A403EDE85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32595B3B-6218-4129-B1A0-39C2172E338F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="16">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="18">
   <si>
     <t>2025-03-26</t>
   </si>
@@ -53,9 +44,6 @@
     <t>Pt. Conception</t>
   </si>
   <si>
-    <t>CojoHQ</t>
-  </si>
-  <si>
     <t>dry_wgt</t>
   </si>
   <si>
@@ -69,6 +57,24 @@
   </si>
   <si>
     <t>note: only 1 other petal</t>
+  </si>
+  <si>
+    <t>all_petal_wet_wgt</t>
+  </si>
+  <si>
+    <t>One petal was collected from 15 plants from eachpopulation.  They were weighted using a Canon CanoScan LIDE 400 scanner and then weighed using an Ohaus Adventurer balance.  Petals were then put into a coin envelope and dried for a minimum of 48 hours in a drying oven.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>Cojo</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -467,1612 +473,1629 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.15917000000000001</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>9.9570000000000007</v>
+      </c>
+      <c r="H2">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <f>D2-H2</f>
+        <v>0.14157</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2/D2</f>
+        <v>0.88942639944713198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3">
+        <v>0.1101</v>
+      </c>
+      <c r="F3">
+        <v>3.6</v>
+      </c>
+      <c r="G3">
+        <v>13.920999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.1169999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <f>D3-H3</f>
+        <v>9.8930000000000004E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3/D3</f>
+        <v>0.89854677565849228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.20482</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>13.526999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.1229999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <f>D4-H4</f>
+        <v>0.18359</v>
+      </c>
+      <c r="J4" s="2">
+        <f>I4/D4</f>
+        <v>0.89634801288936627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.17571999999999999</v>
+      </c>
+      <c r="F5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H5">
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <f>D5-H5</f>
+        <v>0.15789999999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <f>I5/D5</f>
+        <v>0.89858866378329161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.18694</v>
+      </c>
+      <c r="F6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H6">
+        <v>1.9980000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <f>D6-H6</f>
+        <v>0.16696</v>
+      </c>
+      <c r="J6" s="2">
+        <f>I6/D6</f>
+        <v>0.89312078741842305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.16783999999999999</v>
+      </c>
+      <c r="F7">
+        <v>3.2</v>
+      </c>
+      <c r="H7">
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="I7">
+        <f>D7-H7</f>
+        <v>0.14959</v>
+      </c>
+      <c r="J7" s="2">
+        <f>I7/D7</f>
+        <v>0.89126549094375607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D8">
+        <v>0.12293999999999999</v>
+      </c>
+      <c r="F8">
+        <v>4.5</v>
+      </c>
+      <c r="H8">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <f>D8-H8</f>
+        <v>0.10836</v>
+      </c>
+      <c r="J8" s="2">
+        <f>I8/D8</f>
+        <v>0.88140556368960477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0.15426999999999999</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <f>D9-H9</f>
+        <v>0.13807</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9/D9</f>
+        <v>0.89498930446619562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0.10899</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="I10">
+        <f>D10-H10</f>
+        <v>9.7549999999999998E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I10/D10</f>
+        <v>0.89503624185705111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.18375</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1.84E-2</v>
+      </c>
+      <c r="I11">
+        <f>D11-H11</f>
+        <v>0.16535</v>
+      </c>
+      <c r="J11" s="2">
+        <f>I11/D11</f>
+        <v>0.89986394557823124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D12">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
+      </c>
+      <c r="H12">
+        <v>2.2710000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <f>D12-H12</f>
+        <v>0.17779</v>
+      </c>
+      <c r="J12" s="2">
+        <f>I12/D12</f>
+        <v>0.88673316708229422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.15917000000000001</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>9.9570000000000007</v>
-      </c>
-      <c r="G3">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="H3">
-        <f>D3-G3</f>
-        <v>0.14157</v>
-      </c>
-      <c r="I3" s="2">
-        <f>H3/D3</f>
-        <v>0.88942639944713198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.1101</v>
-      </c>
-      <c r="E4">
-        <v>3.6</v>
-      </c>
-      <c r="F4">
-        <v>13.920999999999999</v>
-      </c>
-      <c r="G4">
-        <v>1.1169999999999999E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H17" si="0">D4-G4</f>
-        <v>9.8930000000000004E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I17" si="1">H4/D4</f>
-        <v>0.89854677565849228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0.20482</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>13.526999999999999</v>
-      </c>
-      <c r="G5">
-        <v>2.1229999999999999E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.18359</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89634801288936627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0.17571999999999999</v>
-      </c>
-      <c r="E6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G6">
-        <v>1.7819999999999999E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.15789999999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89858866378329161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.18694</v>
-      </c>
-      <c r="E7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G7">
-        <v>1.9980000000000001E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.16696</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89312078741842305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0.16783999999999999</v>
-      </c>
-      <c r="E8">
-        <v>3.2</v>
-      </c>
-      <c r="G8">
-        <v>1.8249999999999999E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.14959</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89126549094375607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>0.12293999999999999</v>
-      </c>
-      <c r="E9">
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <v>1.4579999999999999E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.10836</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88140556368960477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>0.15426999999999999</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.13807</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89498930446619562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0.10899</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1.1440000000000001E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>9.7549999999999998E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89503624185705111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>0.18375</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.16535</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89986394557823124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
       <c r="D13">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="E13">
-        <v>4.5</v>
-      </c>
-      <c r="G13">
-        <v>2.2710000000000001E-2</v>
+        <v>0.24551000000000001</v>
+      </c>
+      <c r="F13">
+        <v>5.8</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.17779</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88673316708229422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <f>D13-H13</f>
+        <v>0.21931</v>
+      </c>
+      <c r="J13" s="2">
+        <f>I13/D13</f>
+        <v>0.8932833693128589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>0.24551000000000001</v>
-      </c>
-      <c r="E14">
-        <v>5.8</v>
-      </c>
-      <c r="G14">
-        <v>2.6200000000000001E-2</v>
+        <v>0.18895000000000001</v>
+      </c>
+      <c r="F14">
+        <v>3.9</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.21931</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8932833693128589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.9279999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <f>D14-H14</f>
+        <v>0.16967000000000002</v>
+      </c>
+      <c r="J14" s="2">
+        <f>I14/D14</f>
+        <v>0.89796242392167247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>0.18895000000000001</v>
-      </c>
-      <c r="E15">
+        <v>0.13603999999999999</v>
+      </c>
+      <c r="F15">
         <v>3.9</v>
       </c>
-      <c r="G15">
-        <v>1.9279999999999999E-2</v>
-      </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0.16967000000000002</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89796242392167247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.4829999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <f>D15-H15</f>
+        <v>0.12121</v>
+      </c>
+      <c r="J15" s="2">
+        <f>I15/D15</f>
+        <v>0.8909879447221406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>0.13603999999999999</v>
-      </c>
-      <c r="E16">
-        <v>3.9</v>
-      </c>
-      <c r="G16">
-        <v>1.4829999999999999E-2</v>
+        <v>0.11903</v>
+      </c>
+      <c r="F16">
+        <v>3.5</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0.12121</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8909879447221406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="I16">
+        <f>D16-H16</f>
+        <v>0.10503</v>
+      </c>
+      <c r="J16" s="2">
+        <f>I16/D16</f>
+        <v>0.88238259262370833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45744</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.11903</v>
-      </c>
-      <c r="E17">
-        <v>3.5</v>
-      </c>
-      <c r="G17">
-        <v>1.4E-2</v>
+        <v>5.4460000000000001E-2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0.10503</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88238259262370833</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="I17">
+        <f>D17-H17</f>
+        <v>4.8230000000000002E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <f>I17/D17</f>
+        <v>0.88560411311053988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45744</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>5.4460000000000001E-2</v>
-      </c>
-      <c r="G18">
-        <v>6.2300000000000003E-3</v>
+        <v>6.5339999999999995E-2</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H32" si="2">D18-G18</f>
-        <v>4.8230000000000002E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" ref="I18:I32" si="3">H18/D18</f>
-        <v>0.88560411311053988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.09E-3</v>
+      </c>
+      <c r="I18">
+        <f>D18-H18</f>
+        <v>5.7249999999999995E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <f>I18/D18</f>
+        <v>0.87618610345883075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45744</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>6.5339999999999995E-2</v>
-      </c>
-      <c r="G19">
-        <v>8.09E-3</v>
+        <v>6.9680000000000006E-2</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>5.7249999999999995E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87618610345883075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <f>D19-H19</f>
+        <v>5.7660000000000003E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <f>I19/D19</f>
+        <v>0.8274971297359357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45744</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>6.9680000000000006E-2</v>
-      </c>
-      <c r="G20">
-        <v>1.2019999999999999E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>5.7660000000000003E-2</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.8274971297359357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.5600000000000008E-3</v>
+      </c>
+      <c r="I20">
+        <f>D20-H20</f>
+        <v>5.484E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <f>I20/D20</f>
+        <v>0.85155279503105596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45744</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="G21">
-        <v>9.5600000000000008E-3</v>
+        <v>8.3510000000000001E-2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>5.484E-2</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.85155279503105596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <f>D21-H21</f>
+        <v>7.5209999999999999E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <f>I21/D21</f>
+        <v>0.90061070530475396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45744</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>8.3510000000000001E-2</v>
-      </c>
-      <c r="G22">
-        <v>8.3000000000000001E-3</v>
+        <v>7.8229999999999994E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>7.5209999999999999E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="3"/>
-        <v>0.90061070530475396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.5099999999999994E-3</v>
+      </c>
+      <c r="I22">
+        <f>D22-H22</f>
+        <v>6.8719999999999989E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <f>I22/D22</f>
+        <v>0.87843538284545564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45744</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>7.8229999999999994E-2</v>
-      </c>
-      <c r="G23">
-        <v>9.5099999999999994E-3</v>
+        <v>0.12504999999999999</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>6.8719999999999989E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87843538284545564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <f>D23-H23</f>
+        <v>0.11238999999999999</v>
+      </c>
+      <c r="J23" s="2">
+        <f>I23/D23</f>
+        <v>0.89876049580167927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45744</v>
       </c>
       <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
       <c r="D24">
-        <v>0.12504999999999999</v>
-      </c>
-      <c r="G24">
-        <v>1.2659999999999999E-2</v>
+        <v>0.10689</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>0.11238999999999999</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="3"/>
-        <v>0.89876049580167927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="I24">
+        <f>D24-H24</f>
+        <v>0.10102999999999999</v>
+      </c>
+      <c r="J24" s="2">
+        <f>I24/D24</f>
+        <v>0.94517728505940679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45744</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0.10689</v>
-      </c>
-      <c r="G25">
-        <v>5.8599999999999998E-3</v>
+        <v>0.14451</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>0.10102999999999999</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.94517728505940679</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="I25">
+        <f>D25-H25</f>
+        <v>0.13103999999999999</v>
+      </c>
+      <c r="J25" s="2">
+        <f>I25/D25</f>
+        <v>0.90678845754619053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45744</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.14451</v>
-      </c>
-      <c r="G26">
-        <v>1.3469999999999999E-2</v>
+        <v>8.2030000000000006E-2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>0.13103999999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="3"/>
-        <v>0.90678845754619053</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="I26">
+        <f>D26-H26</f>
+        <v>7.2160000000000002E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <f>I26/D26</f>
+        <v>0.8796781665244422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45744</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>8.2030000000000006E-2</v>
-      </c>
-      <c r="G27">
-        <v>9.8700000000000003E-3</v>
+        <v>7.4819999999999998E-2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>7.2160000000000002E-2</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="3"/>
-        <v>0.8796781665244422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="I27">
+        <f>D27-H27</f>
+        <v>6.6879999999999995E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f>I27/D27</f>
+        <v>0.89387864207431167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45744</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>7.4819999999999998E-2</v>
-      </c>
-      <c r="G28">
-        <v>7.9399999999999991E-3</v>
+        <v>8.412E-2</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>6.6879999999999995E-2</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="3"/>
-        <v>0.89387864207431167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="I28">
+        <f>D28-H28</f>
+        <v>7.5539999999999996E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f>I28/D28</f>
+        <v>0.89800285306704708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45744</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>8.412E-2</v>
-      </c>
-      <c r="G29">
-        <v>8.5800000000000008E-3</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>7.5539999999999996E-2</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="3"/>
-        <v>0.89800285306704708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3.0200000000000001E-3</v>
+      </c>
+      <c r="I29">
+        <f>D29-H29</f>
+        <v>2.8580000000000001E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <f>I29/D29</f>
+        <v>0.90443037974683538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45744</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="G30">
-        <v>3.0200000000000001E-3</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>2.8580000000000001E-2</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="3"/>
-        <v>0.90443037974683538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.45E-3</v>
+      </c>
+      <c r="I30">
+        <f>D30-H30</f>
+        <v>3.3849999999999998E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f>I30/D30</f>
+        <v>0.88381201044386415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45744</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="G31">
-        <v>4.45E-3</v>
+        <v>5.8630000000000002E-2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>3.3849999999999998E-2</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="3"/>
-        <v>0.88381201044386415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="I31">
+        <f>D31-H31</f>
+        <v>4.9570000000000003E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <f>I31/D31</f>
+        <v>0.84547160156916257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45744</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>5.8630000000000002E-2</v>
-      </c>
-      <c r="G32">
-        <v>9.0600000000000003E-3</v>
+        <v>7.4609999999999996E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>4.9570000000000003E-2</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="3"/>
-        <v>0.84547160156916257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="I32">
+        <f>D32-H32</f>
+        <v>6.5279999999999991E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <f>I32/D32</f>
+        <v>0.87494973864093273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45744</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>7.4609999999999996E-2</v>
-      </c>
-      <c r="G33">
-        <v>9.3299999999999998E-3</v>
+        <v>3.6850000000000001E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H62" si="4">D33-G33</f>
-        <v>6.5279999999999991E-2</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" ref="I33:I62" si="5">H33/D33</f>
-        <v>0.87494973864093273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.62E-3</v>
+      </c>
+      <c r="I33">
+        <f>D33-H33</f>
+        <v>3.2230000000000002E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <f>I33/D33</f>
+        <v>0.87462686567164183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45744</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>3.6850000000000001E-2</v>
-      </c>
-      <c r="G34">
-        <v>4.62E-3</v>
+        <v>0.10612000000000001</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
-        <v>3.2230000000000002E-2</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="5"/>
-        <v>0.87462686567164183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.1860000000000001E-2</v>
+      </c>
+      <c r="I34">
+        <f>D34-H34</f>
+        <v>9.426000000000001E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <f>I34/D34</f>
+        <v>0.88823972860912181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45744</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0.10612000000000001</v>
-      </c>
-      <c r="G35">
-        <v>1.1860000000000001E-2</v>
+        <v>7.0050000000000001E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
-        <v>9.426000000000001E-2</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88823972860912181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.6600000000000001E-3</v>
+      </c>
+      <c r="I35">
+        <f>D35-H35</f>
+        <v>6.3390000000000002E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <f>I35/D35</f>
+        <v>0.90492505353319064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45744</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>7.0050000000000001E-2</v>
-      </c>
-      <c r="G36">
-        <v>6.6600000000000001E-3</v>
+        <v>6.2520000000000006E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
-        <v>6.3390000000000002E-2</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="5"/>
-        <v>0.90492505353319064</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7.9100000000000004E-3</v>
+      </c>
+      <c r="I36">
+        <f>D36-H36</f>
+        <v>5.4610000000000006E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <f>I36/D36</f>
+        <v>0.87348048624440178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45744</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>6.2520000000000006E-2</v>
-      </c>
-      <c r="G37">
-        <v>7.9100000000000004E-3</v>
+        <v>5.9610000000000003E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
-        <v>5.4610000000000006E-2</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="5"/>
-        <v>0.87348048624440178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7.1399999999999996E-3</v>
+      </c>
+      <c r="I37">
+        <f>D37-H37</f>
+        <v>5.2470000000000003E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <f>I37/D37</f>
+        <v>0.88022143935581276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45744</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>5.9610000000000003E-2</v>
-      </c>
-      <c r="G38">
-        <v>7.1399999999999996E-3</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
-        <v>5.2470000000000003E-2</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88022143935581276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="I38">
+        <f>D38-H38</f>
+        <v>5.636E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <f>I38/D38</f>
+        <v>0.89602543720190786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45744</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="G39">
-        <v>6.5399999999999998E-3</v>
+        <v>5.0869999999999999E-2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
-        <v>5.636E-2</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="5"/>
-        <v>0.89602543720190786</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="I39">
+        <f>D39-H39</f>
+        <v>4.4609999999999997E-2</v>
+      </c>
+      <c r="J39" s="2">
+        <f>I39/D39</f>
+        <v>0.87694122272459207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45744</v>
       </c>
       <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
       <c r="D40">
-        <v>5.0869999999999999E-2</v>
-      </c>
-      <c r="G40">
-        <v>6.2599999999999999E-3</v>
+        <v>7.4139999999999998E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
-        <v>4.4609999999999997E-2</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="5"/>
-        <v>0.87694122272459207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="I40">
+        <f>D40-H40</f>
+        <v>6.5099999999999991E-2</v>
+      </c>
+      <c r="J40" s="2">
+        <f>I40/D40</f>
+        <v>0.87806851901807381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45744</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>7.4139999999999998E-2</v>
-      </c>
-      <c r="G41">
-        <v>9.0399999999999994E-3</v>
+        <v>4.4240000000000002E-2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
-        <v>6.5099999999999991E-2</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="5"/>
-        <v>0.87806851901807381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="I41">
+        <f>D41-H41</f>
+        <v>3.7700000000000004E-2</v>
+      </c>
+      <c r="J41" s="2">
+        <f>I41/D41</f>
+        <v>0.85216998191681748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45744</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>4.4240000000000002E-2</v>
-      </c>
-      <c r="G42">
-        <v>6.5399999999999998E-3</v>
+        <v>0.13056999999999999</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
-        <v>3.7700000000000004E-2</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="5"/>
-        <v>0.85216998191681748</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.4840000000000001E-2</v>
+      </c>
+      <c r="I42">
+        <f>D42-H42</f>
+        <v>0.11572999999999999</v>
+      </c>
+      <c r="J42" s="2">
+        <f>I42/D42</f>
+        <v>0.88634448954583744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45744</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>0.13056999999999999</v>
-      </c>
-      <c r="G43">
-        <v>1.4840000000000001E-2</v>
+        <v>8.9630000000000001E-2</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
-        <v>0.11572999999999999</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88634448954583744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.065E-2</v>
+      </c>
+      <c r="I43">
+        <f>D43-H43</f>
+        <v>7.8979999999999995E-2</v>
+      </c>
+      <c r="J43" s="2">
+        <f>I43/D43</f>
+        <v>0.88117817694968192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45744</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>8.9630000000000001E-2</v>
-      </c>
-      <c r="G44">
-        <v>1.065E-2</v>
+        <v>0.11824</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
-        <v>7.8979999999999995E-2</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88117817694968192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.371E-2</v>
+      </c>
+      <c r="I44">
+        <f>D44-H44</f>
+        <v>0.10453</v>
+      </c>
+      <c r="J44" s="2">
+        <f>I44/D44</f>
+        <v>0.88404939106901215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45744</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>0.11824</v>
-      </c>
-      <c r="G45">
-        <v>1.371E-2</v>
+        <v>5.704E-2</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
-        <v>0.10453</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88404939106901215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.7400000000000003E-3</v>
+      </c>
+      <c r="I45">
+        <f>D45-H45</f>
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <f>I45/D45</f>
+        <v>0.88183730715287512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45744</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>5.704E-2</v>
-      </c>
-      <c r="G46">
-        <v>6.7400000000000003E-3</v>
+        <v>0.10456</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88183730715287512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.2829999999999999E-2</v>
+      </c>
+      <c r="I46">
+        <f>D46-H46</f>
+        <v>9.1730000000000006E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <f>I46/D46</f>
+        <v>0.87729533282325944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45744</v>
+        <v>45764</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.10456</v>
-      </c>
-      <c r="G47">
-        <v>1.2829999999999999E-2</v>
+        <v>2.8340000000000001E-2</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
-        <v>9.1730000000000006E-2</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" si="5"/>
-        <v>0.87729533282325944</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I47">
+        <f>D47-H47</f>
+        <v>2.8140000000000002E-2</v>
+      </c>
+      <c r="J47" s="2">
+        <f>I47/D47</f>
+        <v>0.99294283697953423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45764</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>2.8340000000000001E-2</v>
-      </c>
-      <c r="G48">
-        <v>2.0000000000000001E-4</v>
+        <v>3.2590000000000001E-2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
-        <v>2.8140000000000002E-2</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="5"/>
-        <v>0.99294283697953423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.5100000000000001E-3</v>
+      </c>
+      <c r="I48">
+        <f>D48-H48</f>
+        <v>2.8080000000000001E-2</v>
+      </c>
+      <c r="J48" s="2">
+        <f>I48/D48</f>
+        <v>0.86161399202209266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45764</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>3.2590000000000001E-2</v>
-      </c>
-      <c r="G49">
-        <v>4.5100000000000001E-3</v>
+        <v>3.9129999999999998E-2</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
-        <v>2.8080000000000001E-2</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="5"/>
-        <v>0.86161399202209266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="I49">
+        <f>D49-H49</f>
+        <v>3.458E-2</v>
+      </c>
+      <c r="J49" s="2">
+        <f>I49/D49</f>
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45764</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>3.9129999999999998E-2</v>
-      </c>
-      <c r="G50">
-        <v>4.5500000000000002E-3</v>
+        <v>7.4179999999999996E-2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
-        <v>3.458E-2</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88372093023255816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.6900000000000007E-3</v>
+      </c>
+      <c r="I50">
+        <f>D50-H50</f>
+        <v>6.4489999999999992E-2</v>
+      </c>
+      <c r="J50" s="2">
+        <f>I50/D50</f>
+        <v>0.86937179832839029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45764</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>7.4179999999999996E-2</v>
-      </c>
-      <c r="G51">
-        <v>9.6900000000000007E-3</v>
+        <v>4.5670000000000002E-2</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
-        <v>6.4489999999999992E-2</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="5"/>
-        <v>0.86937179832839029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5.3E-3</v>
+      </c>
+      <c r="I51">
+        <f>D51-H51</f>
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f>I51/D51</f>
+        <v>0.88395007663674185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45764</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>4.5670000000000002E-2</v>
-      </c>
-      <c r="G52">
-        <v>5.3E-3</v>
+        <v>0.10503</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
-        <v>4.0370000000000003E-2</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88395007663674185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.8099999999999993E-3</v>
+      </c>
+      <c r="I52">
+        <f>D52-H52</f>
+        <v>9.5219999999999999E-2</v>
+      </c>
+      <c r="J52" s="2">
+        <f>I52/D52</f>
+        <v>0.90659811482433594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45764</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>0.10503</v>
-      </c>
-      <c r="G53">
-        <v>9.8099999999999993E-3</v>
+        <v>7.4789999999999995E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
-        <v>9.5219999999999999E-2</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="5"/>
-        <v>0.90659811482433594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.2900000000000005E-3</v>
+      </c>
+      <c r="I53">
+        <f>D53-H53</f>
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <f>I53/D53</f>
+        <v>0.88915630431875914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45764</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>7.4789999999999995E-2</v>
-      </c>
-      <c r="G54">
-        <v>8.2900000000000005E-3</v>
+        <v>7.4069999999999997E-2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
-        <v>6.649999999999999E-2</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88915630431875914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I54">
+        <f>D54-H54</f>
+        <v>6.7169999999999994E-2</v>
+      </c>
+      <c r="J54" s="2">
+        <f>I54/D54</f>
+        <v>0.90684487646820566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45764</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>7.4069999999999997E-2</v>
-      </c>
-      <c r="G55">
-        <v>6.8999999999999999E-3</v>
+        <v>0.10575</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
-        <v>6.7169999999999994E-2</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="5"/>
-        <v>0.90684487646820566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.175E-2</v>
+      </c>
+      <c r="I55">
+        <f>D55-H55</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="J55" s="2">
+        <f>I55/D55</f>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45764</v>
       </c>
       <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
         <v>10</v>
       </c>
-      <c r="C56">
-        <v>9</v>
-      </c>
       <c r="D56">
-        <v>0.10575</v>
-      </c>
-      <c r="G56">
-        <v>1.175E-2</v>
+        <v>4.2479999999999997E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
-        <v>9.4E-2</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88888888888888895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5.79E-3</v>
+      </c>
+      <c r="I56">
+        <f>D56-H56</f>
+        <v>3.669E-2</v>
+      </c>
+      <c r="J56" s="2">
+        <f>I56/D56</f>
+        <v>0.86370056497175152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45764</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>4.2479999999999997E-2</v>
-      </c>
-      <c r="G57">
-        <v>5.79E-3</v>
+        <v>2.222E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
-        <v>3.669E-2</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="5"/>
-        <v>0.86370056497175152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.47E-3</v>
+      </c>
+      <c r="I57">
+        <f>D57-H57</f>
+        <v>1.975E-2</v>
+      </c>
+      <c r="J57" s="2">
+        <f>I57/D57</f>
+        <v>0.88883888388838883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45764</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>2.222E-2</v>
-      </c>
-      <c r="G58">
-        <v>2.47E-3</v>
+        <v>6.9040000000000004E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
-        <v>1.975E-2</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88883888388838883</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I58">
+        <f>D58-H58</f>
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="J58" s="2">
+        <f>I58/D58</f>
+        <v>0.85805330243337197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45764</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>6.9040000000000004E-2</v>
-      </c>
-      <c r="G59">
-        <v>9.7999999999999997E-3</v>
+        <v>6.13E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
-        <v>5.9240000000000001E-2</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="5"/>
-        <v>0.85805330243337197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="I59">
+        <f>D59-H59</f>
+        <v>5.2769999999999997E-2</v>
+      </c>
+      <c r="J59" s="2">
+        <f>I59/D59</f>
+        <v>0.86084828711256112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45764</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>6.13E-2</v>
-      </c>
-      <c r="G60">
-        <v>8.5299999999999994E-3</v>
+        <v>7.7710000000000001E-2</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
-        <v>5.2769999999999997E-2</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="5"/>
-        <v>0.86084828711256112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="I60">
+        <f>D60-H60</f>
+        <v>6.9580000000000003E-2</v>
+      </c>
+      <c r="J60" s="2">
+        <f>I60/D60</f>
+        <v>0.89538025994080561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45764</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>7.7710000000000001E-2</v>
-      </c>
-      <c r="G61">
-        <v>8.1300000000000001E-3</v>
+        <v>5.3150000000000003E-2</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
-        <v>6.9580000000000003E-2</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="5"/>
-        <v>0.89538025994080561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="I61">
+        <f>D61-H61</f>
+        <v>4.6970000000000005E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <f>I61/D61</f>
+        <v>0.88372530573847607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45764</v>
+        <v>45797</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>15</v>
       </c>
       <c r="D62">
-        <v>5.3150000000000003E-2</v>
-      </c>
-      <c r="G62">
-        <v>6.1799999999999997E-3</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="4"/>
-        <v>4.6970000000000005E-2</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88372530573847607</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.7840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45797</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>15</v>
       </c>
       <c r="D63">
-        <v>1.7840000000000002E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45797</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>15</v>
       </c>
       <c r="D64">
-        <v>2.1950000000000001E-2</v>
+        <v>2.179E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2080,13 +2103,13 @@
         <v>45797</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>15</v>
       </c>
       <c r="D65">
-        <v>2.179E-2</v>
+        <v>1.907E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2094,13 +2117,13 @@
         <v>45797</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>1.907E-2</v>
+        <v>1.494E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2108,13 +2131,13 @@
         <v>45797</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>1.494E-2</v>
+        <v>1.559E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2122,13 +2145,13 @@
         <v>45797</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>1.559E-2</v>
+        <v>1.404E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2136,13 +2159,13 @@
         <v>45797</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>1.404E-2</v>
+        <v>1.332E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2150,13 +2173,13 @@
         <v>45797</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>1.332E-2</v>
+        <v>1.3520000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2164,13 +2187,13 @@
         <v>45797</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>1.3520000000000001E-2</v>
+        <v>2.443E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2178,13 +2201,13 @@
         <v>45797</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>2.443E-2</v>
+        <v>2.0240000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2192,13 +2215,13 @@
         <v>45797</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>2.0240000000000001E-2</v>
+        <v>3.5810000000000002E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2206,13 +2229,13 @@
         <v>45797</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>3.5810000000000002E-2</v>
+        <v>3.0630000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2220,13 +2243,13 @@
         <v>45797</v>
       </c>
       <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
         <v>8</v>
       </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
       <c r="D75">
-        <v>3.0630000000000001E-2</v>
+        <v>1.9869999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2234,13 +2257,13 @@
         <v>45797</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>1.9869999999999999E-2</v>
+        <v>3.2750000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2248,13 +2271,13 @@
         <v>45797</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>3.2750000000000001E-2</v>
+        <v>2.7029999999999998E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2262,13 +2285,13 @@
         <v>45797</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>2.7029999999999998E-2</v>
+        <v>3.7179999999999998E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2276,13 +2299,13 @@
         <v>45797</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>3.7179999999999998E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2290,13 +2313,13 @@
         <v>45797</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>1.5900000000000001E-2</v>
+        <v>8.7500000000000008E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2304,13 +2327,13 @@
         <v>45797</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>8.7500000000000008E-3</v>
+        <v>2.3040000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2318,27 +2341,30 @@
         <v>45797</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>14</v>
-      </c>
-      <c r="D82">
-        <v>2.3040000000000001E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45797</v>
+        <v>45799</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" t="s">
-        <v>13</v>
+      <c r="D83">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="E83">
+        <v>8.1420000000000006E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2346,16 +2372,16 @@
         <v>45799</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>1.7219999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="E84">
-        <v>8.1420000000000006E-2</v>
+        <v>8.9800000000000005E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2363,16 +2389,16 @@
         <v>45799</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>2.4400000000000002E-2</v>
+        <v>3.3160000000000002E-2</v>
       </c>
       <c r="E85">
-        <v>8.9800000000000005E-2</v>
+        <v>0.11244999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2380,16 +2406,16 @@
         <v>45799</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>3.3160000000000002E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E86">
-        <v>0.11244999999999999</v>
+        <v>6.6030000000000005E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2397,16 +2423,16 @@
         <v>45799</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>1.7899999999999999E-2</v>
+        <v>3.6229999999999998E-2</v>
       </c>
       <c r="E87">
-        <v>6.6030000000000005E-2</v>
+        <v>0.12798999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2414,16 +2440,16 @@
         <v>45799</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>3.6229999999999998E-2</v>
+        <v>1.882E-2</v>
       </c>
       <c r="E88">
-        <v>0.12798999999999999</v>
+        <v>6.8190000000000001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2431,16 +2457,16 @@
         <v>45799</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>1.882E-2</v>
+        <v>3.1859999999999999E-2</v>
       </c>
       <c r="E89">
-        <v>6.8190000000000001E-2</v>
+        <v>0.12113</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2448,16 +2474,16 @@
         <v>45799</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>3.1859999999999999E-2</v>
+        <v>2.0369999999999999E-2</v>
       </c>
       <c r="E90">
-        <v>0.12113</v>
+        <v>7.3730000000000004E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2465,16 +2491,16 @@
         <v>45799</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>2.0369999999999999E-2</v>
+        <v>3.4669999999999999E-2</v>
       </c>
       <c r="E91">
-        <v>7.3730000000000004E-2</v>
+        <v>0.13655999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2482,16 +2508,16 @@
         <v>45799</v>
       </c>
       <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92">
         <v>10</v>
       </c>
-      <c r="C92">
-        <v>9</v>
-      </c>
       <c r="D92">
-        <v>3.4669999999999999E-2</v>
+        <v>1.145E-2</v>
       </c>
       <c r="E92">
-        <v>0.13655999999999999</v>
+        <v>4.4080000000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2499,16 +2525,16 @@
         <v>45799</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>1.145E-2</v>
+        <v>2.061E-2</v>
       </c>
       <c r="E93">
-        <v>4.4080000000000001E-2</v>
+        <v>7.7420000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2516,16 +2542,16 @@
         <v>45799</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>2.061E-2</v>
+        <v>2.316E-2</v>
       </c>
       <c r="E94">
-        <v>7.7420000000000003E-2</v>
+        <v>8.4430000000000005E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2533,16 +2559,16 @@
         <v>45799</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>2.316E-2</v>
+        <v>3.4950000000000002E-2</v>
       </c>
       <c r="E95">
-        <v>8.4430000000000005E-2</v>
+        <v>0.13244</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2550,16 +2576,16 @@
         <v>45799</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>3.4950000000000002E-2</v>
+        <v>3.3579999999999999E-2</v>
       </c>
       <c r="E96">
-        <v>0.13244</v>
+        <v>0.13173000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2567,33 +2593,33 @@
         <v>45799</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>3.3579999999999999E-2</v>
+        <v>3.4950000000000002E-2</v>
       </c>
       <c r="E97">
-        <v>0.13173000000000001</v>
+        <v>0.1241</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>3.4950000000000002E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E98">
-        <v>0.1241</v>
+        <v>9.9449999999999997E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2601,16 +2627,16 @@
         <v>45800</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>2.58E-2</v>
+        <v>2.5870000000000001E-2</v>
       </c>
       <c r="E99">
-        <v>9.9449999999999997E-2</v>
+        <v>9.1429999999999997E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -2618,16 +2644,16 @@
         <v>45800</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>2.5870000000000001E-2</v>
+        <v>4.104E-2</v>
       </c>
       <c r="E100">
-        <v>9.1429999999999997E-2</v>
+        <v>0.14326</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2635,16 +2661,16 @@
         <v>45800</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>4.104E-2</v>
+        <v>6.6119999999999998E-2</v>
       </c>
       <c r="E101">
-        <v>0.14326</v>
+        <v>0.23336999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2652,16 +2678,16 @@
         <v>45800</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>6.6119999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E102">
-        <v>0.23336999999999999</v>
+        <v>0.17912</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2669,16 +2695,16 @@
         <v>45800</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103">
-        <v>4.7E-2</v>
+        <v>1.9060000000000001E-2</v>
       </c>
       <c r="E103">
-        <v>0.17912</v>
+        <v>7.0569999999999994E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -2686,16 +2712,16 @@
         <v>45800</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>1.9060000000000001E-2</v>
+        <v>3.6850000000000001E-2</v>
       </c>
       <c r="E104">
-        <v>7.0569999999999994E-2</v>
+        <v>0.14238999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -2703,16 +2729,19 @@
         <v>45800</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>3.6850000000000001E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="E105">
-        <v>0.14238999999999999</v>
+        <v>5.432E-2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -2720,19 +2749,16 @@
         <v>45800</v>
       </c>
       <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
         <v>9</v>
       </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
       <c r="D106">
-        <v>2.4510000000000001E-2</v>
+        <v>6.8110000000000004E-2</v>
       </c>
       <c r="E106">
-        <v>5.432E-2</v>
-      </c>
-      <c r="F106" t="s">
-        <v>15</v>
+        <v>0.25609999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -2740,16 +2766,16 @@
         <v>45800</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>6.8110000000000004E-2</v>
+        <v>3.0519999999999999E-2</v>
       </c>
       <c r="E107">
-        <v>0.25609999999999999</v>
+        <v>0.10929999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -2757,16 +2783,16 @@
         <v>45800</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>3.0519999999999999E-2</v>
+        <v>2.8170000000000001E-2</v>
       </c>
       <c r="E108">
-        <v>0.10929999999999999</v>
+        <v>0.10738</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -2774,16 +2800,16 @@
         <v>45800</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>2.8170000000000001E-2</v>
+        <v>4.478E-2</v>
       </c>
       <c r="E109">
-        <v>0.10738</v>
+        <v>0.16599</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -2791,16 +2817,16 @@
         <v>45800</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110">
-        <v>4.478E-2</v>
+        <v>2.734E-2</v>
       </c>
       <c r="E110">
-        <v>0.16599</v>
+        <v>9.8269999999999996E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -2808,16 +2834,16 @@
         <v>45800</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111">
-        <v>2.734E-2</v>
+        <v>5.6550000000000003E-2</v>
       </c>
       <c r="E111">
-        <v>9.8269999999999996E-2</v>
+        <v>0.20577000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -2825,16 +2851,16 @@
         <v>45800</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112">
-        <v>5.6550000000000003E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="E112">
-        <v>0.20577000000000001</v>
+        <v>5.1240000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -2842,16 +2868,16 @@
         <v>45800</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>1.256E-2</v>
+        <v>4.3189999999999999E-2</v>
       </c>
       <c r="E113">
-        <v>5.1240000000000001E-2</v>
+        <v>0.17515</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -2859,16 +2885,16 @@
         <v>45800</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>4.3189999999999999E-2</v>
+        <v>3.0370000000000001E-2</v>
       </c>
       <c r="E114">
-        <v>0.17515</v>
+        <v>0.12569</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -2876,16 +2902,16 @@
         <v>45800</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>3.0370000000000001E-2</v>
+        <v>5.0040000000000001E-2</v>
       </c>
       <c r="E115">
-        <v>0.12569</v>
+        <v>0.18176</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -2893,16 +2919,16 @@
         <v>45800</v>
       </c>
       <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>4</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
       <c r="D116">
-        <v>5.0040000000000001E-2</v>
+        <v>3.8109999999999998E-2</v>
       </c>
       <c r="E116">
-        <v>0.18176</v>
+        <v>0.13627</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -2910,16 +2936,16 @@
         <v>45800</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>3.8109999999999998E-2</v>
+        <v>4.0770000000000001E-2</v>
       </c>
       <c r="E117">
-        <v>0.13627</v>
+        <v>0.14979999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -2927,16 +2953,16 @@
         <v>45800</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D118">
-        <v>4.0770000000000001E-2</v>
+        <v>2.9049999999999999E-2</v>
       </c>
       <c r="E118">
-        <v>0.14979999999999999</v>
+        <v>0.11876</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -2944,16 +2970,16 @@
         <v>45800</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D119">
-        <v>2.9049999999999999E-2</v>
+        <v>4.8680000000000001E-2</v>
       </c>
       <c r="E119">
-        <v>0.11876</v>
+        <v>0.19547</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -2961,16 +2987,16 @@
         <v>45800</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>4.8680000000000001E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="E120">
-        <v>0.19547</v>
+        <v>0.13272999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -2978,16 +3004,16 @@
         <v>45800</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>3.9960000000000002E-2</v>
+        <v>2.6280000000000001E-2</v>
       </c>
       <c r="E121">
-        <v>0.13272999999999999</v>
+        <v>0.12263</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -2995,16 +3021,16 @@
         <v>45800</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122">
-        <v>2.6280000000000001E-2</v>
+        <v>5.3490000000000003E-2</v>
       </c>
       <c r="E122">
-        <v>0.12263</v>
+        <v>0.19818</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3012,16 +3038,16 @@
         <v>45800</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>5.3490000000000003E-2</v>
+        <v>2.266E-2</v>
       </c>
       <c r="E123">
-        <v>0.19818</v>
+        <v>7.6509999999999995E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3029,16 +3055,16 @@
         <v>45800</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124">
-        <v>2.266E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="E124">
-        <v>7.6509999999999995E-2</v>
+        <v>9.8610000000000003E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3046,16 +3072,16 @@
         <v>45800</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125">
-        <v>2.6790000000000001E-2</v>
+        <v>2.8510000000000001E-2</v>
       </c>
       <c r="E125">
-        <v>9.8610000000000003E-2</v>
+        <v>0.10714</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -3063,16 +3089,16 @@
         <v>45800</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126">
-        <v>2.8510000000000001E-2</v>
+        <v>4.437E-2</v>
       </c>
       <c r="E126">
-        <v>0.10714</v>
+        <v>0.17354</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3080,27 +3106,430 @@
         <v>45800</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>14</v>
-      </c>
-      <c r="D127">
-        <v>4.437E-2</v>
-      </c>
-      <c r="E127">
-        <v>0.17354</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45800</v>
+        <v>45840</v>
       </c>
       <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>3.7479999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>4.054E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>2.9219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
         <v>4</v>
       </c>
-      <c r="C128">
+      <c r="D131">
+        <v>2.896E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>2.2950000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>2.5680000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>1.7979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>2.3460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>2.2179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>2.4590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138">
+        <v>3.4750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>13</v>
+      </c>
+      <c r="D140">
+        <v>2.4809999999999999E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>2.1229999999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142">
         <v>15</v>
+      </c>
+      <c r="D142">
+        <v>1.576E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1.9640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>2.4709999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3.049E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>3.5229999999999997E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>2.298E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>2.0930000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>3.3669999999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>2.47E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>3.4950000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>1.5679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>3.1449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>14</v>
+      </c>
+      <c r="D156">
+        <v>1.5169999999999999E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>15</v>
+      </c>
+      <c r="D157">
+        <v>1.949E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3110,15 +3539,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE0A4B-1E6F-4F75-BC10-959C71F80662}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/plant/petal_weight_3.xlsx
+++ b/data/raw/plant/petal_weight_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32595B3B-6218-4129-B1A0-39C2172E338F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80276DFA-134C-4B1A-AA60-CED48905AE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="19">
   <si>
     <t>2025-03-26</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>Cojo</t>
   </si>
+  <si>
+    <t>Block</t>
+  </si>
 </sst>
 </file>
 
@@ -118,10 +121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,3078 +466,4061 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0.15917000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.9570000000000007</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="I2">
-        <f>D2-H2</f>
+      <c r="J2">
+        <f t="shared" ref="J2:J33" si="0">E2-I2</f>
         <v>0.14157</v>
       </c>
-      <c r="J2" s="2">
-        <f>I2/D2</f>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K33" si="1">J2/E2</f>
         <v>0.88942639944713198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>0.1101</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>13.920999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.1169999999999999E-2</v>
       </c>
-      <c r="I3">
-        <f>D3-H3</f>
+      <c r="J3">
+        <f t="shared" si="0"/>
         <v>9.8930000000000004E-2</v>
       </c>
-      <c r="J3" s="2">
-        <f>I3/D3</f>
+      <c r="K3" s="2">
+        <f t="shared" si="1"/>
         <v>0.89854677565849228</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>0.20482</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>13.526999999999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.1229999999999999E-2</v>
       </c>
-      <c r="I4">
-        <f>D4-H4</f>
+      <c r="J4">
+        <f t="shared" si="0"/>
         <v>0.18359</v>
       </c>
-      <c r="J4" s="2">
-        <f>I4/D4</f>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
         <v>0.89634801288936627</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.17571999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="I5">
-        <f>D5-H5</f>
+      <c r="J5">
+        <f t="shared" si="0"/>
         <v>0.15789999999999998</v>
       </c>
-      <c r="J5" s="2">
-        <f>I5/D5</f>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
         <v>0.89858866378329161</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>0.18694</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.9980000000000001E-2</v>
       </c>
-      <c r="I6">
-        <f>D6-H6</f>
+      <c r="J6">
+        <f t="shared" si="0"/>
         <v>0.16696</v>
       </c>
-      <c r="J6" s="2">
-        <f>I6/D6</f>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
         <v>0.89312078741842305</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>0.16783999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.8249999999999999E-2</v>
       </c>
-      <c r="I7">
-        <f>D7-H7</f>
+      <c r="J7">
+        <f t="shared" si="0"/>
         <v>0.14959</v>
       </c>
-      <c r="J7" s="2">
-        <f>I7/D7</f>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
         <v>0.89126549094375607</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.12293999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.4579999999999999E-2</v>
       </c>
-      <c r="I8">
-        <f>D8-H8</f>
+      <c r="J8">
+        <f t="shared" si="0"/>
         <v>0.10836</v>
       </c>
-      <c r="J8" s="2">
-        <f>I8/D8</f>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
         <v>0.88140556368960477</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.15426999999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="I9">
-        <f>D9-H9</f>
+      <c r="J9">
+        <f t="shared" si="0"/>
         <v>0.13807</v>
       </c>
-      <c r="J9" s="2">
-        <f>I9/D9</f>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
         <v>0.89498930446619562</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.10899</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.1440000000000001E-2</v>
       </c>
-      <c r="I10">
-        <f>D10-H10</f>
+      <c r="J10">
+        <f t="shared" si="0"/>
         <v>9.7549999999999998E-2</v>
       </c>
-      <c r="J10" s="2">
-        <f>I10/D10</f>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
         <v>0.89503624185705111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.18375</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.84E-2</v>
       </c>
-      <c r="I11">
-        <f>D11-H11</f>
+      <c r="J11">
+        <f t="shared" si="0"/>
         <v>0.16535</v>
       </c>
-      <c r="J11" s="2">
-        <f>I11/D11</f>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
         <v>0.89986394557823124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.20050000000000001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.2710000000000001E-2</v>
       </c>
-      <c r="I12">
-        <f>D12-H12</f>
+      <c r="J12">
+        <f t="shared" si="0"/>
         <v>0.17779</v>
       </c>
-      <c r="J12" s="2">
-        <f>I12/D12</f>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
         <v>0.88673316708229422</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.24551000000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.8</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="I13">
-        <f>D13-H13</f>
+      <c r="J13">
+        <f t="shared" si="0"/>
         <v>0.21931</v>
       </c>
-      <c r="J13" s="2">
-        <f>I13/D13</f>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
         <v>0.8932833693128589</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.18895000000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.9279999999999999E-2</v>
       </c>
-      <c r="I14">
-        <f>D14-H14</f>
+      <c r="J14">
+        <f t="shared" si="0"/>
         <v>0.16967000000000002</v>
       </c>
-      <c r="J14" s="2">
-        <f>I14/D14</f>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
         <v>0.89796242392167247</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.13603999999999999</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.4829999999999999E-2</v>
       </c>
-      <c r="I15">
-        <f>D15-H15</f>
+      <c r="J15">
+        <f t="shared" si="0"/>
         <v>0.12121</v>
       </c>
-      <c r="J15" s="2">
-        <f>I15/D15</f>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
         <v>0.8909879447221406</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.11903</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.4E-2</v>
       </c>
-      <c r="I16">
-        <f>D16-H16</f>
+      <c r="J16">
+        <f t="shared" si="0"/>
         <v>0.10503</v>
       </c>
-      <c r="J16" s="2">
-        <f>I16/D16</f>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
         <v>0.88238259262370833</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45744</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>5.4460000000000001E-2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>6.2300000000000003E-3</v>
       </c>
-      <c r="I17">
-        <f>D17-H17</f>
+      <c r="J17">
+        <f t="shared" si="0"/>
         <v>4.8230000000000002E-2</v>
       </c>
-      <c r="J17" s="2">
-        <f>I17/D17</f>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
         <v>0.88560411311053988</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45744</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>6.5339999999999995E-2</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8.09E-3</v>
       </c>
-      <c r="I18">
-        <f>D18-H18</f>
+      <c r="J18">
+        <f t="shared" si="0"/>
         <v>5.7249999999999995E-2</v>
       </c>
-      <c r="J18" s="2">
-        <f>I18/D18</f>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
         <v>0.87618610345883075</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45744</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>6.9680000000000006E-2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.2019999999999999E-2</v>
       </c>
-      <c r="I19">
-        <f>D19-H19</f>
+      <c r="J19">
+        <f t="shared" si="0"/>
         <v>5.7660000000000003E-2</v>
       </c>
-      <c r="J19" s="2">
-        <f>I19/D19</f>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
         <v>0.8274971297359357</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45744</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>9.5600000000000008E-3</v>
       </c>
-      <c r="I20">
-        <f>D20-H20</f>
+      <c r="J20">
+        <f t="shared" si="0"/>
         <v>5.484E-2</v>
       </c>
-      <c r="J20" s="2">
-        <f>I20/D20</f>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
         <v>0.85155279503105596</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45744</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>8.3510000000000001E-2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="I21">
-        <f>D21-H21</f>
+      <c r="J21">
+        <f t="shared" si="0"/>
         <v>7.5209999999999999E-2</v>
       </c>
-      <c r="J21" s="2">
-        <f>I21/D21</f>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
         <v>0.90061070530475396</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45744</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
         <v>7.8229999999999994E-2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>9.5099999999999994E-3</v>
       </c>
-      <c r="I22">
-        <f>D22-H22</f>
+      <c r="J22">
+        <f t="shared" si="0"/>
         <v>6.8719999999999989E-2</v>
       </c>
-      <c r="J22" s="2">
-        <f>I22/D22</f>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
         <v>0.87843538284545564</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45744</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.12504999999999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="I23">
-        <f>D23-H23</f>
+      <c r="J23">
+        <f t="shared" si="0"/>
         <v>0.11238999999999999</v>
       </c>
-      <c r="J23" s="2">
-        <f>I23/D23</f>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
         <v>0.89876049580167927</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45744</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.10689</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5.8599999999999998E-3</v>
       </c>
-      <c r="I24">
-        <f>D24-H24</f>
+      <c r="J24">
+        <f t="shared" si="0"/>
         <v>0.10102999999999999</v>
       </c>
-      <c r="J24" s="2">
-        <f>I24/D24</f>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
         <v>0.94517728505940679</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45744</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.14451</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.3469999999999999E-2</v>
       </c>
-      <c r="I25">
-        <f>D25-H25</f>
+      <c r="J25">
+        <f t="shared" si="0"/>
         <v>0.13103999999999999</v>
       </c>
-      <c r="J25" s="2">
-        <f>I25/D25</f>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
         <v>0.90678845754619053</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45744</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8.2030000000000006E-2</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>9.8700000000000003E-3</v>
       </c>
-      <c r="I26">
-        <f>D26-H26</f>
+      <c r="J26">
+        <f t="shared" si="0"/>
         <v>7.2160000000000002E-2</v>
       </c>
-      <c r="J26" s="2">
-        <f>I26/D26</f>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
         <v>0.8796781665244422</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45744</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>7.4819999999999998E-2</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.9399999999999991E-3</v>
       </c>
-      <c r="I27">
-        <f>D27-H27</f>
+      <c r="J27">
+        <f t="shared" si="0"/>
         <v>6.6879999999999995E-2</v>
       </c>
-      <c r="J27" s="2">
-        <f>I27/D27</f>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
         <v>0.89387864207431167</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45744</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8.412E-2</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8.5800000000000008E-3</v>
       </c>
-      <c r="I28">
-        <f>D28-H28</f>
+      <c r="J28">
+        <f t="shared" si="0"/>
         <v>7.5539999999999996E-2</v>
       </c>
-      <c r="J28" s="2">
-        <f>I28/D28</f>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
         <v>0.89800285306704708</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45744</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="I29">
-        <f>D29-H29</f>
+      <c r="J29">
+        <f t="shared" si="0"/>
         <v>2.8580000000000001E-2</v>
       </c>
-      <c r="J29" s="2">
-        <f>I29/D29</f>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
         <v>0.90443037974683538</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45744</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4.45E-3</v>
       </c>
-      <c r="I30">
-        <f>D30-H30</f>
+      <c r="J30">
+        <f t="shared" si="0"/>
         <v>3.3849999999999998E-2</v>
       </c>
-      <c r="J30" s="2">
-        <f>I30/D30</f>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
         <v>0.88381201044386415</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45744</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>15</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5.8630000000000002E-2</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>9.0600000000000003E-3</v>
       </c>
-      <c r="I31">
-        <f>D31-H31</f>
+      <c r="J31">
+        <f t="shared" si="0"/>
         <v>4.9570000000000003E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f>I31/D31</f>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
         <v>0.84547160156916257</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45744</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>7.4609999999999996E-2</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>9.3299999999999998E-3</v>
       </c>
-      <c r="I32">
-        <f>D32-H32</f>
+      <c r="J32">
+        <f t="shared" si="0"/>
         <v>6.5279999999999991E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f>I32/D32</f>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
         <v>0.87494973864093273</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45744</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>3.6850000000000001E-2</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>4.62E-3</v>
       </c>
-      <c r="I33">
-        <f>D33-H33</f>
+      <c r="J33">
+        <f t="shared" si="0"/>
         <v>3.2230000000000002E-2</v>
       </c>
-      <c r="J33" s="2">
-        <f>I33/D33</f>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
         <v>0.87462686567164183</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45744</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
       </c>
       <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
         <v>0.10612000000000001</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.1860000000000001E-2</v>
       </c>
-      <c r="I34">
-        <f>D34-H34</f>
+      <c r="J34">
+        <f t="shared" ref="J34:J65" si="2">E34-I34</f>
         <v>9.426000000000001E-2</v>
       </c>
-      <c r="J34" s="2">
-        <f>I34/D34</f>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34:K65" si="3">J34/E34</f>
         <v>0.88823972860912181</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45744</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>7.0050000000000001E-2</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>6.6600000000000001E-3</v>
       </c>
-      <c r="I35">
-        <f>D35-H35</f>
+      <c r="J35">
+        <f t="shared" si="2"/>
         <v>6.3390000000000002E-2</v>
       </c>
-      <c r="J35" s="2">
-        <f>I35/D35</f>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
         <v>0.90492505353319064</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45744</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
       </c>
       <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
         <v>6.2520000000000006E-2</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7.9100000000000004E-3</v>
       </c>
-      <c r="I36">
-        <f>D36-H36</f>
+      <c r="J36">
+        <f t="shared" si="2"/>
         <v>5.4610000000000006E-2</v>
       </c>
-      <c r="J36" s="2">
-        <f>I36/D36</f>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
         <v>0.87348048624440178</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45744</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
         <v>5.9610000000000003E-2</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>7.1399999999999996E-3</v>
       </c>
-      <c r="I37">
-        <f>D37-H37</f>
+      <c r="J37">
+        <f t="shared" si="2"/>
         <v>5.2470000000000003E-2</v>
       </c>
-      <c r="J37" s="2">
-        <f>I37/D37</f>
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
         <v>0.88022143935581276</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45744</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>6.5399999999999998E-3</v>
       </c>
-      <c r="I38">
-        <f>D38-H38</f>
+      <c r="J38">
+        <f t="shared" si="2"/>
         <v>5.636E-2</v>
       </c>
-      <c r="J38" s="2">
-        <f>I38/D38</f>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
         <v>0.89602543720190786</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45744</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>5.0869999999999999E-2</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>6.2599999999999999E-3</v>
       </c>
-      <c r="I39">
-        <f>D39-H39</f>
+      <c r="J39">
+        <f t="shared" si="2"/>
         <v>4.4609999999999997E-2</v>
       </c>
-      <c r="J39" s="2">
-        <f>I39/D39</f>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
         <v>0.87694122272459207</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45744</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>7.4139999999999998E-2</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>9.0399999999999994E-3</v>
       </c>
-      <c r="I40">
-        <f>D40-H40</f>
+      <c r="J40">
+        <f t="shared" si="2"/>
         <v>6.5099999999999991E-2</v>
       </c>
-      <c r="J40" s="2">
-        <f>I40/D40</f>
+      <c r="K40" s="2">
+        <f t="shared" si="3"/>
         <v>0.87806851901807381</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45744</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>4.4240000000000002E-2</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>6.5399999999999998E-3</v>
       </c>
-      <c r="I41">
-        <f>D41-H41</f>
+      <c r="J41">
+        <f t="shared" si="2"/>
         <v>3.7700000000000004E-2</v>
       </c>
-      <c r="J41" s="2">
-        <f>I41/D41</f>
+      <c r="K41" s="2">
+        <f t="shared" si="3"/>
         <v>0.85216998191681748</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45744</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.13056999999999999</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1.4840000000000001E-2</v>
       </c>
-      <c r="I42">
-        <f>D42-H42</f>
+      <c r="J42">
+        <f t="shared" si="2"/>
         <v>0.11572999999999999</v>
       </c>
-      <c r="J42" s="2">
-        <f>I42/D42</f>
+      <c r="K42" s="2">
+        <f t="shared" si="3"/>
         <v>0.88634448954583744</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45744</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>8.9630000000000001E-2</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1.065E-2</v>
       </c>
-      <c r="I43">
-        <f>D43-H43</f>
+      <c r="J43">
+        <f t="shared" si="2"/>
         <v>7.8979999999999995E-2</v>
       </c>
-      <c r="J43" s="2">
-        <f>I43/D43</f>
+      <c r="K43" s="2">
+        <f t="shared" si="3"/>
         <v>0.88117817694968192</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45744</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.11824</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1.371E-2</v>
       </c>
-      <c r="I44">
-        <f>D44-H44</f>
+      <c r="J44">
+        <f t="shared" si="2"/>
         <v>0.10453</v>
       </c>
-      <c r="J44" s="2">
-        <f>I44/D44</f>
+      <c r="K44" s="2">
+        <f t="shared" si="3"/>
         <v>0.88404939106901215</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45744</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
         <v>14</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>5.704E-2</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="I45">
-        <f>D45-H45</f>
+      <c r="J45">
+        <f t="shared" si="2"/>
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="J45" s="2">
-        <f>I45/D45</f>
+      <c r="K45" s="2">
+        <f t="shared" si="3"/>
         <v>0.88183730715287512</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45744</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
         <v>15</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.10456</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1.2829999999999999E-2</v>
       </c>
-      <c r="I46">
-        <f>D46-H46</f>
+      <c r="J46">
+        <f t="shared" si="2"/>
         <v>9.1730000000000006E-2</v>
       </c>
-      <c r="J46" s="2">
-        <f>I46/D46</f>
+      <c r="K46" s="2">
+        <f t="shared" si="3"/>
         <v>0.87729533282325944</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45764</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>2.8340000000000001E-2</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I47">
-        <f>D47-H47</f>
+      <c r="J47">
+        <f t="shared" si="2"/>
         <v>2.8140000000000002E-2</v>
       </c>
-      <c r="J47" s="2">
-        <f>I47/D47</f>
+      <c r="K47" s="2">
+        <f t="shared" si="3"/>
         <v>0.99294283697953423</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45764</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
       <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
         <v>3.2590000000000001E-2</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>4.5100000000000001E-3</v>
       </c>
-      <c r="I48">
-        <f>D48-H48</f>
+      <c r="J48">
+        <f t="shared" si="2"/>
         <v>2.8080000000000001E-2</v>
       </c>
-      <c r="J48" s="2">
-        <f>I48/D48</f>
+      <c r="K48" s="2">
+        <f t="shared" si="3"/>
         <v>0.86161399202209266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45764</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
       <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
         <v>3.9129999999999998E-2</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>4.5500000000000002E-3</v>
       </c>
-      <c r="I49">
-        <f>D49-H49</f>
+      <c r="J49">
+        <f t="shared" si="2"/>
         <v>3.458E-2</v>
       </c>
-      <c r="J49" s="2">
-        <f>I49/D49</f>
+      <c r="K49" s="2">
+        <f t="shared" si="3"/>
         <v>0.88372093023255816</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45764</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>7.4179999999999996E-2</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>9.6900000000000007E-3</v>
       </c>
-      <c r="I50">
-        <f>D50-H50</f>
+      <c r="J50">
+        <f t="shared" si="2"/>
         <v>6.4489999999999992E-2</v>
       </c>
-      <c r="J50" s="2">
-        <f>I50/D50</f>
+      <c r="K50" s="2">
+        <f t="shared" si="3"/>
         <v>0.86937179832839029</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45764</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>17</v>
       </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
       <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
         <v>4.5670000000000002E-2</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5.3E-3</v>
       </c>
-      <c r="I51">
-        <f>D51-H51</f>
+      <c r="J51">
+        <f t="shared" si="2"/>
         <v>4.0370000000000003E-2</v>
       </c>
-      <c r="J51" s="2">
-        <f>I51/D51</f>
+      <c r="K51" s="2">
+        <f t="shared" si="3"/>
         <v>0.88395007663674185</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45764</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>17</v>
       </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
       <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
         <v>0.10503</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>9.8099999999999993E-3</v>
       </c>
-      <c r="I52">
-        <f>D52-H52</f>
+      <c r="J52">
+        <f t="shared" si="2"/>
         <v>9.5219999999999999E-2</v>
       </c>
-      <c r="J52" s="2">
-        <f>I52/D52</f>
+      <c r="K52" s="2">
+        <f t="shared" si="3"/>
         <v>0.90659811482433594</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45764</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>17</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>7</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>7.4789999999999995E-2</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>8.2900000000000005E-3</v>
       </c>
-      <c r="I53">
-        <f>D53-H53</f>
+      <c r="J53">
+        <f t="shared" si="2"/>
         <v>6.649999999999999E-2</v>
       </c>
-      <c r="J53" s="2">
-        <f>I53/D53</f>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
         <v>0.88915630431875914</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45764</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>17</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>8</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>7.4069999999999997E-2</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I54">
-        <f>D54-H54</f>
+      <c r="J54">
+        <f t="shared" si="2"/>
         <v>6.7169999999999994E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f>I54/D54</f>
+      <c r="K54" s="2">
+        <f t="shared" si="3"/>
         <v>0.90684487646820566</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45764</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>17</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>9</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.10575</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1.175E-2</v>
       </c>
-      <c r="I55">
-        <f>D55-H55</f>
+      <c r="J55">
+        <f t="shared" si="2"/>
         <v>9.4E-2</v>
       </c>
-      <c r="J55" s="2">
-        <f>I55/D55</f>
+      <c r="K55" s="2">
+        <f t="shared" si="3"/>
         <v>0.88888888888888895</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45764</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>4.2479999999999997E-2</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>5.79E-3</v>
       </c>
-      <c r="I56">
-        <f>D56-H56</f>
+      <c r="J56">
+        <f t="shared" si="2"/>
         <v>3.669E-2</v>
       </c>
-      <c r="J56" s="2">
-        <f>I56/D56</f>
+      <c r="K56" s="2">
+        <f t="shared" si="3"/>
         <v>0.86370056497175152</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45764</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>17</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>11</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>2.222E-2</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2.47E-3</v>
       </c>
-      <c r="I57">
-        <f>D57-H57</f>
+      <c r="J57">
+        <f t="shared" si="2"/>
         <v>1.975E-2</v>
       </c>
-      <c r="J57" s="2">
-        <f>I57/D57</f>
+      <c r="K57" s="2">
+        <f t="shared" si="3"/>
         <v>0.88883888388838883</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45764</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>17</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>12</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>6.9040000000000004E-2</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="I58">
-        <f>D58-H58</f>
+      <c r="J58">
+        <f t="shared" si="2"/>
         <v>5.9240000000000001E-2</v>
       </c>
-      <c r="J58" s="2">
-        <f>I58/D58</f>
+      <c r="K58" s="2">
+        <f t="shared" si="3"/>
         <v>0.85805330243337197</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45764</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>13</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>6.13E-2</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>8.5299999999999994E-3</v>
       </c>
-      <c r="I59">
-        <f>D59-H59</f>
+      <c r="J59">
+        <f t="shared" si="2"/>
         <v>5.2769999999999997E-2</v>
       </c>
-      <c r="J59" s="2">
-        <f>I59/D59</f>
+      <c r="K59" s="2">
+        <f t="shared" si="3"/>
         <v>0.86084828711256112</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45764</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>14</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>7.7710000000000001E-2</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>8.1300000000000001E-3</v>
       </c>
-      <c r="I60">
-        <f>D60-H60</f>
+      <c r="J60">
+        <f t="shared" si="2"/>
         <v>6.9580000000000003E-2</v>
       </c>
-      <c r="J60" s="2">
-        <f>I60/D60</f>
+      <c r="K60" s="2">
+        <f t="shared" si="3"/>
         <v>0.89538025994080561</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45764</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>15</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>5.3150000000000003E-2</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>6.1799999999999997E-3</v>
       </c>
-      <c r="I61">
-        <f>D61-H61</f>
+      <c r="J61">
+        <f t="shared" si="2"/>
         <v>4.6970000000000005E-2</v>
       </c>
-      <c r="J61" s="2">
-        <f>I61/D61</f>
+      <c r="K61" s="2">
+        <f t="shared" si="3"/>
         <v>0.88372530573847607</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45797</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
         <v>15</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>1.7840000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45797</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
         <v>15</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>2.1950000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45797</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
         <v>15</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>2.179E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45797</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
         <v>15</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>1.907E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45797</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
       </c>
       <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
         <v>1.494E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45797</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
       </c>
       <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
         <v>1.559E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45797</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
       </c>
       <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>1.404E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45797</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
       </c>
       <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
         <v>1.332E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45797</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
       </c>
       <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
         <v>1.3520000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45797</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
         <v>4</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45797</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
         <v>2.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45797</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
       <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
         <v>3.5810000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45797</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
         <v>7</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>3.0630000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45797</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1.9869999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>45797</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76">
         <v>9</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45797</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
         <v>10</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>2.7029999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45797</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
         <v>11</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>3.7179999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45797</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
         <v>12</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45797</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
         <v>13</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>8.7500000000000008E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45797</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
         <v>14</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>2.3040000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45797</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45799</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
         <v>17</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
       <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
         <v>1.7219999999999999E-2</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>8.1420000000000006E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45799</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
       <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45799</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
       <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
         <v>3.3160000000000002E-2</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.11244999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45799</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
         <v>17</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>4</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>6.6030000000000005E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45799</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
         <v>17</v>
       </c>
-      <c r="C87">
-        <v>5</v>
-      </c>
       <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
         <v>3.6229999999999998E-2</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.12798999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45799</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
         <v>17</v>
       </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
       <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
         <v>1.882E-2</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>6.8190000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45799</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
         <v>17</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>7</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>3.1859999999999999E-2</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>0.12113</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45799</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
         <v>17</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>8</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>2.0369999999999999E-2</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>7.3730000000000004E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45799</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>9</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>3.4669999999999999E-2</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.13655999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45799</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
         <v>17</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>10</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>1.145E-2</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>4.4080000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45799</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
         <v>17</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>11</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>2.061E-2</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>7.7420000000000003E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45799</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
         <v>17</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>12</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>2.316E-2</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>8.4430000000000005E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45799</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
         <v>17</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>13</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>3.4950000000000002E-2</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>0.13244</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45799</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
         <v>17</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>14</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>3.3579999999999999E-2</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>0.13173000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45799</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
         <v>17</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>15</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>3.4950000000000002E-2</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>0.1241</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45800</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
       </c>
       <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>2.58E-2</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>9.9449999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45800</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
       </c>
       <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
         <v>2.5870000000000001E-2</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>9.1429999999999997E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45800</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
       </c>
       <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
         <v>4.104E-2</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>0.14326</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45800</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101">
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
         <v>4</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>6.6119999999999998E-2</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>0.23336999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45800</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102">
-        <v>5</v>
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
       </c>
       <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
         <v>4.7E-2</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>0.17912</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45800</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
         <v>1.9060000000000001E-2</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>7.0569999999999994E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45800</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104">
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
         <v>7</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>3.6850000000000001E-2</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.14238999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45800</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
         <v>8</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>2.4510000000000001E-2</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>5.432E-2</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>45800</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106">
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
         <v>9</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>6.8110000000000004E-2</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>0.25609999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45800</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107">
+      <c r="B107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
         <v>10</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>3.0519999999999999E-2</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45800</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108">
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108">
         <v>11</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>2.8170000000000001E-2</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>0.10738</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45800</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
         <v>12</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>4.478E-2</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>0.16599</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45800</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110">
+      <c r="B110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110">
         <v>13</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>2.734E-2</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>9.8269999999999996E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45800</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111">
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
         <v>14</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>5.6550000000000003E-2</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>0.20577000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45800</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
         <v>15</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>1.256E-2</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>5.1240000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>45800</v>
       </c>
-      <c r="B113" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113">
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
         <v>4.3189999999999999E-2</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>0.17515</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45800</v>
       </c>
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
       </c>
       <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
         <v>3.0370000000000001E-2</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>0.12569</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45800</v>
       </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
       </c>
       <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
         <v>5.0040000000000001E-2</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>0.18176</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45800</v>
       </c>
-      <c r="B116" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116">
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
         <v>4</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>3.8109999999999998E-2</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>0.13627</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45800</v>
       </c>
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>5</v>
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
       </c>
       <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
         <v>4.0770000000000001E-2</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>0.14979999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45800</v>
       </c>
-      <c r="B118" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>6</v>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
       </c>
       <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
         <v>2.9049999999999999E-2</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>0.11876</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45800</v>
       </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119">
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
         <v>7</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>4.8680000000000001E-2</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>0.19547</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45800</v>
       </c>
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120">
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
         <v>8</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>3.9960000000000002E-2</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>0.13272999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45800</v>
       </c>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121">
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121">
         <v>9</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>2.6280000000000001E-2</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>0.12263</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45800</v>
       </c>
-      <c r="B122" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122">
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
         <v>10</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>5.3490000000000003E-2</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>0.19818</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45800</v>
       </c>
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123">
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
         <v>11</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>2.266E-2</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>7.6509999999999995E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45800</v>
       </c>
-      <c r="B124" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124">
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
         <v>12</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>2.6790000000000001E-2</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>9.8610000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45800</v>
       </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125">
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125">
         <v>13</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>2.8510000000000001E-2</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>0.10714</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45800</v>
       </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126">
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
         <v>14</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>4.437E-2</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>0.17354</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45800</v>
       </c>
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127">
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45840</v>
       </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
+      <c r="B128" s="3">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
       </c>
       <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
         <v>3.7479999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45840</v>
       </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129">
-        <v>2</v>
+      <c r="B129" s="3">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
       </c>
       <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
         <v>4.054E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45840</v>
       </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130">
-        <v>3</v>
+      <c r="B130" s="3">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
       </c>
       <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
         <v>2.9219999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45840</v>
       </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131">
+      <c r="B131" s="3">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131">
         <v>4</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>2.896E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45840</v>
       </c>
-      <c r="B132" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132">
-        <v>5</v>
+      <c r="B132" s="3">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
       </c>
       <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
         <v>2.2950000000000002E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45840</v>
       </c>
-      <c r="B133" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133">
+      <c r="B133" s="3">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
         <v>6</v>
       </c>
       <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
         <v>2.5680000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45840</v>
       </c>
-      <c r="B134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134">
+      <c r="B134" s="3">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
         <v>7</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>1.7979999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45840</v>
       </c>
-      <c r="B135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135">
+      <c r="B135" s="3">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135">
         <v>8</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>2.3460000000000002E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45840</v>
       </c>
-      <c r="B136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136">
+      <c r="B136" s="3">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136">
         <v>9</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>2.2179999999999998E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45840</v>
       </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137">
+      <c r="B137" s="3">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137">
         <v>10</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>2.4590000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45840</v>
       </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138">
+      <c r="B138" s="3">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
         <v>11</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45840</v>
       </c>
-      <c r="B139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139">
+      <c r="B139" s="3">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
         <v>12</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45840</v>
       </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140">
+      <c r="B140" s="3">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140">
         <v>13</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>2.4809999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45840</v>
       </c>
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141">
+      <c r="B141" s="3">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
         <v>14</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>2.1229999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45840</v>
       </c>
-      <c r="B142" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142">
+      <c r="B142" s="3">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142">
         <v>15</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>1.576E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45840</v>
       </c>
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143">
+      <c r="B143" s="3">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
         <v>1.9640000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45840</v>
       </c>
-      <c r="B144" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>2</v>
+      <c r="B144" s="3">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
       </c>
       <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
         <v>2.4709999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45840</v>
       </c>
-      <c r="B145" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>3</v>
+      <c r="B145" s="3">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
       </c>
       <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
         <v>3.049E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45840</v>
       </c>
-      <c r="B146" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146">
+      <c r="B146" s="3">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
         <v>4</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45840</v>
       </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>5</v>
+      <c r="B147" s="3">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
       </c>
       <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
         <v>3.5229999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45840</v>
       </c>
-      <c r="B148" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>6</v>
+      <c r="B148" s="3">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
       </c>
       <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148">
         <v>2.298E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45840</v>
       </c>
-      <c r="B149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149">
+      <c r="B149" s="3">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149">
         <v>7</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>2.0930000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45840</v>
       </c>
-      <c r="B150" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150">
+      <c r="B150" s="3">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
         <v>8</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>3.3669999999999999E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45840</v>
       </c>
-      <c r="B151" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151">
+      <c r="B151" s="3">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151">
         <v>9</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45840</v>
       </c>
-      <c r="B152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152">
+      <c r="B152" s="3">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
         <v>10</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>3.4950000000000002E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45840</v>
       </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153">
+      <c r="B153" s="3">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153">
         <v>11</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45840</v>
       </c>
-      <c r="B154" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154">
+      <c r="B154" s="3">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154">
         <v>12</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>3.1449999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45840</v>
       </c>
-      <c r="B155" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155">
+      <c r="B155" s="3">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155">
         <v>13</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>8.7500000000000008E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45840</v>
       </c>
-      <c r="B156" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156">
+      <c r="B156" s="3">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
         <v>14</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>1.5169999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45840</v>
       </c>
-      <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157">
+      <c r="B157" s="3">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
         <v>15</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>1.949E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B158" s="3">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1.5740000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B159" s="3">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>8.7399999999999995E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B160" s="3">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>1.6379999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B161" s="3">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B162" s="3">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>1.8780000000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B163" s="3">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>9.7599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B164" s="3">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>3.4250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B165" s="3">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165">
+        <v>8</v>
+      </c>
+      <c r="E165">
+        <v>1.5469999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B166" s="3">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>8.0700000000000008E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B167" s="3">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>8.5800000000000008E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B168" s="3">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168">
+        <v>11</v>
+      </c>
+      <c r="E168">
+        <v>1.8089999999999998E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B169" s="3">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <v>12</v>
+      </c>
+      <c r="E169">
+        <v>2.053E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B170" s="3">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170">
+        <v>13</v>
+      </c>
+      <c r="E170">
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B171" s="3">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171">
+        <v>14</v>
+      </c>
+      <c r="E171">
+        <v>9.5600000000000008E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B172" s="3">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172">
+        <v>15</v>
+      </c>
+      <c r="E172">
+        <v>1.6410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B173" s="3">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1.0959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B174" s="3">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>1.389E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B175" s="3">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>1.712E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B176" s="3">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+      <c r="E176">
+        <v>9.9399999999999992E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B177" s="3">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>7.7799999999999996E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B178" s="3">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>5.4200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B179" s="3">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179">
+        <v>8.0099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B180" s="3">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>5.2700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B181" s="3">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>6.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B182" s="3">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>7.9699999999999997E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B183" s="3">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>11</v>
+      </c>
+      <c r="E183">
+        <v>8.2900000000000005E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B184" s="3">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>12</v>
+      </c>
+      <c r="E184">
+        <v>1.179E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B185" s="3">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>13</v>
+      </c>
+      <c r="E185">
+        <v>8.2900000000000005E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B186" s="3">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>14</v>
+      </c>
+      <c r="E186">
+        <v>4.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B187" s="3">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>15</v>
+      </c>
+      <c r="E187">
+        <v>1.0279999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/raw/plant/petal_weight_3.xlsx
+++ b/data/raw/plant/petal_weight_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80276DFA-134C-4B1A-AA60-CED48905AE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FC635DE-E49E-4217-96B5-B654307EF5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="26">
   <si>
     <t>2025-03-26</t>
   </si>
@@ -50,16 +50,10 @@
     <t>water_mg</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>double check 5/20 Perry data - missing one weight.</t>
   </si>
   <si>
     <t>note: only 1 other petal</t>
-  </si>
-  <si>
-    <t>all_petal_wet_wgt</t>
   </si>
   <si>
     <t>One petal was collected from 15 plants from eachpopulation.  They were weighted using a Canon CanoScan LIDE 400 scanner and then weighed using an Ohaus Adventurer balance.  Petals were then put into a coin envelope and dried for a minimum of 48 hours in a drying oven.</t>
@@ -78,6 +72,33 @@
   </si>
   <si>
     <t>Block</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>petal_flower</t>
+  </si>
+  <si>
+    <t>petal</t>
+  </si>
+  <si>
+    <t>petal 2</t>
+  </si>
+  <si>
+    <t>petal 3</t>
+  </si>
+  <si>
+    <t>petal 4</t>
+  </si>
+  <si>
+    <t>water_%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petal </t>
+  </si>
+  <si>
+    <t>probably an error here</t>
   </si>
 </sst>
 </file>
@@ -466,10 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -480,22 +502,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -508,6 +530,9 @@
       </c>
       <c r="J1" t="s">
         <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -526,6 +551,9 @@
       <c r="E2">
         <v>0.15917000000000001</v>
       </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
       <c r="G2">
         <v>4</v>
       </c>
@@ -560,6 +588,9 @@
       <c r="E3">
         <v>0.1101</v>
       </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
       <c r="G3">
         <v>3.6</v>
       </c>
@@ -594,6 +625,9 @@
       <c r="E4">
         <v>0.20482</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
       <c r="G4">
         <v>5</v>
       </c>
@@ -628,6 +662,9 @@
       <c r="E5">
         <v>0.17571999999999999</v>
       </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
       <c r="G5">
         <v>4.0999999999999996</v>
       </c>
@@ -659,6 +696,9 @@
       <c r="E6">
         <v>0.18694</v>
       </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
       <c r="G6">
         <v>4.5999999999999996</v>
       </c>
@@ -690,6 +730,9 @@
       <c r="E7">
         <v>0.16783999999999999</v>
       </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
       <c r="G7">
         <v>3.2</v>
       </c>
@@ -721,6 +764,9 @@
       <c r="E8">
         <v>0.12293999999999999</v>
       </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
       <c r="G8">
         <v>4.5</v>
       </c>
@@ -752,6 +798,9 @@
       <c r="E9">
         <v>0.15426999999999999</v>
       </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
       <c r="G9">
         <v>4</v>
       </c>
@@ -783,6 +832,9 @@
       <c r="E10">
         <v>0.10899</v>
       </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
       <c r="G10">
         <v>4</v>
       </c>
@@ -814,6 +866,9 @@
       <c r="E11">
         <v>0.18375</v>
       </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
       <c r="G11">
         <v>4</v>
       </c>
@@ -845,6 +900,9 @@
       <c r="E12">
         <v>0.20050000000000001</v>
       </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
       <c r="G12">
         <v>4.5</v>
       </c>
@@ -876,6 +934,9 @@
       <c r="E13">
         <v>0.24551000000000001</v>
       </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
       <c r="G13">
         <v>5.8</v>
       </c>
@@ -907,6 +968,9 @@
       <c r="E14">
         <v>0.18895000000000001</v>
       </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
       <c r="G14">
         <v>3.9</v>
       </c>
@@ -938,6 +1002,9 @@
       <c r="E15">
         <v>0.13603999999999999</v>
       </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
       <c r="G15">
         <v>3.9</v>
       </c>
@@ -969,6 +1036,9 @@
       <c r="E16">
         <v>0.11903</v>
       </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
       <c r="G16">
         <v>3.5</v>
       </c>
@@ -1000,6 +1070,9 @@
       <c r="E17">
         <v>5.4460000000000001E-2</v>
       </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
       <c r="I17">
         <v>6.2300000000000003E-3</v>
       </c>
@@ -1028,6 +1101,9 @@
       <c r="E18">
         <v>6.5339999999999995E-2</v>
       </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
       <c r="I18">
         <v>8.09E-3</v>
       </c>
@@ -1056,6 +1132,9 @@
       <c r="E19">
         <v>6.9680000000000006E-2</v>
       </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
       <c r="I19">
         <v>1.2019999999999999E-2</v>
       </c>
@@ -1084,6 +1163,9 @@
       <c r="E20">
         <v>6.4399999999999999E-2</v>
       </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
       <c r="I20">
         <v>9.5600000000000008E-3</v>
       </c>
@@ -1112,6 +1194,9 @@
       <c r="E21">
         <v>8.3510000000000001E-2</v>
       </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
       <c r="I21">
         <v>8.3000000000000001E-3</v>
       </c>
@@ -1140,6 +1225,9 @@
       <c r="E22">
         <v>7.8229999999999994E-2</v>
       </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
       <c r="I22">
         <v>9.5099999999999994E-3</v>
       </c>
@@ -1168,6 +1256,9 @@
       <c r="E23">
         <v>0.12504999999999999</v>
       </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
       <c r="I23">
         <v>1.2659999999999999E-2</v>
       </c>
@@ -1196,6 +1287,9 @@
       <c r="E24">
         <v>0.10689</v>
       </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
       <c r="I24">
         <v>5.8599999999999998E-3</v>
       </c>
@@ -1224,6 +1318,9 @@
       <c r="E25">
         <v>0.14451</v>
       </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
       <c r="I25">
         <v>1.3469999999999999E-2</v>
       </c>
@@ -1252,6 +1349,9 @@
       <c r="E26">
         <v>8.2030000000000006E-2</v>
       </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
       <c r="I26">
         <v>9.8700000000000003E-3</v>
       </c>
@@ -1280,6 +1380,9 @@
       <c r="E27">
         <v>7.4819999999999998E-2</v>
       </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
       <c r="I27">
         <v>7.9399999999999991E-3</v>
       </c>
@@ -1308,6 +1411,9 @@
       <c r="E28">
         <v>8.412E-2</v>
       </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
       <c r="I28">
         <v>8.5800000000000008E-3</v>
       </c>
@@ -1336,6 +1442,9 @@
       <c r="E29">
         <v>3.1600000000000003E-2</v>
       </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
       <c r="I29">
         <v>3.0200000000000001E-3</v>
       </c>
@@ -1364,6 +1473,9 @@
       <c r="E30">
         <v>3.8300000000000001E-2</v>
       </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
       <c r="I30">
         <v>4.45E-3</v>
       </c>
@@ -1392,6 +1504,9 @@
       <c r="E31">
         <v>5.8630000000000002E-2</v>
       </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
       <c r="I31">
         <v>9.0600000000000003E-3</v>
       </c>
@@ -1420,6 +1535,9 @@
       <c r="E32">
         <v>7.4609999999999996E-2</v>
       </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
       <c r="I32">
         <v>9.3299999999999998E-3</v>
       </c>
@@ -1448,6 +1566,9 @@
       <c r="E33">
         <v>3.6850000000000001E-2</v>
       </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
       <c r="I33">
         <v>4.62E-3</v>
       </c>
@@ -1476,15 +1597,18 @@
       <c r="E34">
         <v>0.10612000000000001</v>
       </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
       <c r="I34">
         <v>1.1860000000000001E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="2">E34-I34</f>
+        <f t="shared" ref="J34:J96" si="2">E34-I34</f>
         <v>9.426000000000001E-2</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" ref="K34:K65" si="3">J34/E34</f>
+        <f t="shared" ref="K34:K96" si="3">J34/E34</f>
         <v>0.88823972860912181</v>
       </c>
     </row>
@@ -1504,6 +1628,9 @@
       <c r="E35">
         <v>7.0050000000000001E-2</v>
       </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
       <c r="I35">
         <v>6.6600000000000001E-3</v>
       </c>
@@ -1532,6 +1659,9 @@
       <c r="E36">
         <v>6.2520000000000006E-2</v>
       </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
       <c r="I36">
         <v>7.9100000000000004E-3</v>
       </c>
@@ -1560,6 +1690,9 @@
       <c r="E37">
         <v>5.9610000000000003E-2</v>
       </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
       <c r="I37">
         <v>7.1399999999999996E-3</v>
       </c>
@@ -1588,6 +1721,9 @@
       <c r="E38">
         <v>6.2899999999999998E-2</v>
       </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
       <c r="I38">
         <v>6.5399999999999998E-3</v>
       </c>
@@ -1616,6 +1752,9 @@
       <c r="E39">
         <v>5.0869999999999999E-2</v>
       </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
       <c r="I39">
         <v>6.2599999999999999E-3</v>
       </c>
@@ -1644,6 +1783,9 @@
       <c r="E40">
         <v>7.4139999999999998E-2</v>
       </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
       <c r="I40">
         <v>9.0399999999999994E-3</v>
       </c>
@@ -1672,6 +1814,9 @@
       <c r="E41">
         <v>4.4240000000000002E-2</v>
       </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
       <c r="I41">
         <v>6.5399999999999998E-3</v>
       </c>
@@ -1700,6 +1845,9 @@
       <c r="E42">
         <v>0.13056999999999999</v>
       </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
       <c r="I42">
         <v>1.4840000000000001E-2</v>
       </c>
@@ -1728,6 +1876,9 @@
       <c r="E43">
         <v>8.9630000000000001E-2</v>
       </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
       <c r="I43">
         <v>1.065E-2</v>
       </c>
@@ -1756,6 +1907,9 @@
       <c r="E44">
         <v>0.11824</v>
       </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
       <c r="I44">
         <v>1.371E-2</v>
       </c>
@@ -1784,6 +1938,9 @@
       <c r="E45">
         <v>5.704E-2</v>
       </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
       <c r="I45">
         <v>6.7400000000000003E-3</v>
       </c>
@@ -1812,6 +1969,9 @@
       <c r="E46">
         <v>0.10456</v>
       </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
       <c r="I46">
         <v>1.2829999999999999E-2</v>
       </c>
@@ -1832,13 +1992,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
         <v>2.8340000000000001E-2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
       </c>
       <c r="I47">
         <v>2.0000000000000001E-4</v>
@@ -1860,13 +2023,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
         <v>3.2590000000000001E-2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
       </c>
       <c r="I48">
         <v>4.5100000000000001E-3</v>
@@ -1880,7 +2046,7 @@
         <v>0.86161399202209266</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45764</v>
       </c>
@@ -1888,13 +2054,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
         <v>3.9129999999999998E-2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
       </c>
       <c r="I49">
         <v>4.5500000000000002E-3</v>
@@ -1908,7 +2077,7 @@
         <v>0.88372093023255816</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45764</v>
       </c>
@@ -1916,13 +2085,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50">
         <v>7.4179999999999996E-2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
       </c>
       <c r="I50">
         <v>9.6900000000000007E-3</v>
@@ -1936,7 +2108,7 @@
         <v>0.86937179832839029</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45764</v>
       </c>
@@ -1944,13 +2116,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51">
         <v>4.5670000000000002E-2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
       </c>
       <c r="I51">
         <v>5.3E-3</v>
@@ -1964,7 +2139,7 @@
         <v>0.88395007663674185</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45764</v>
       </c>
@@ -1972,13 +2147,16 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>6</v>
       </c>
       <c r="E52">
         <v>0.10503</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
       </c>
       <c r="I52">
         <v>9.8099999999999993E-3</v>
@@ -1992,7 +2170,7 @@
         <v>0.90659811482433594</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45764</v>
       </c>
@@ -2000,13 +2178,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>7</v>
       </c>
       <c r="E53">
         <v>7.4789999999999995E-2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
       </c>
       <c r="I53">
         <v>8.2900000000000005E-3</v>
@@ -2020,7 +2201,7 @@
         <v>0.88915630431875914</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45764</v>
       </c>
@@ -2028,13 +2209,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
         <v>7.4069999999999997E-2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
       </c>
       <c r="I54">
         <v>6.8999999999999999E-3</v>
@@ -2048,7 +2232,7 @@
         <v>0.90684487646820566</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45764</v>
       </c>
@@ -2056,13 +2240,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55">
         <v>0.10575</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
       </c>
       <c r="I55">
         <v>1.175E-2</v>
@@ -2076,7 +2263,7 @@
         <v>0.88888888888888895</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45764</v>
       </c>
@@ -2084,13 +2271,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>10</v>
       </c>
       <c r="E56">
         <v>4.2479999999999997E-2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
       </c>
       <c r="I56">
         <v>5.79E-3</v>
@@ -2104,7 +2294,7 @@
         <v>0.86370056497175152</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45764</v>
       </c>
@@ -2112,13 +2302,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>11</v>
       </c>
       <c r="E57">
         <v>2.222E-2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
       </c>
       <c r="I57">
         <v>2.47E-3</v>
@@ -2132,7 +2325,7 @@
         <v>0.88883888388838883</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45764</v>
       </c>
@@ -2140,13 +2333,16 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>12</v>
       </c>
       <c r="E58">
         <v>6.9040000000000004E-2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
       </c>
       <c r="I58">
         <v>9.7999999999999997E-3</v>
@@ -2160,7 +2356,7 @@
         <v>0.85805330243337197</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45764</v>
       </c>
@@ -2168,13 +2364,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>13</v>
       </c>
       <c r="E59">
         <v>6.13E-2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
       </c>
       <c r="I59">
         <v>8.5299999999999994E-3</v>
@@ -2188,7 +2387,7 @@
         <v>0.86084828711256112</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45764</v>
       </c>
@@ -2196,13 +2395,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>14</v>
       </c>
       <c r="E60">
         <v>7.7710000000000001E-2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
       </c>
       <c r="I60">
         <v>8.1300000000000001E-3</v>
@@ -2216,7 +2418,7 @@
         <v>0.89538025994080561</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45764</v>
       </c>
@@ -2224,13 +2426,16 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>15</v>
       </c>
       <c r="E61">
         <v>5.3150000000000003E-2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
       </c>
       <c r="I61">
         <v>6.1799999999999997E-3</v>
@@ -2244,12 +2449,12 @@
         <v>0.88372530573847607</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45797</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2260,8 +2465,22 @@
       <c r="E62">
         <v>1.7840000000000002E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8761210762331838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45797</v>
       </c>
@@ -2277,8 +2496,25 @@
       <c r="E63">
         <v>2.1950000000000001E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>5.6499999999999996E-3</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>1.6300000000000002E-2</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74259681093394081</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45797</v>
       </c>
@@ -2294,8 +2530,22 @@
       <c r="E64">
         <v>2.179E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>1.942E-2</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89123451124368969</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45797</v>
       </c>
@@ -2311,8 +2561,22 @@
       <c r="E65">
         <v>1.907E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>1.6330000000000001E-2</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85631882538017834</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45797</v>
       </c>
@@ -2328,8 +2592,22 @@
       <c r="E66">
         <v>1.494E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>1.2580000000000001E-2</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84203480589022761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45797</v>
       </c>
@@ -2345,8 +2623,12 @@
       <c r="E67">
         <v>1.559E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45797</v>
       </c>
@@ -2362,8 +2644,12 @@
       <c r="E68">
         <v>1.404E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45797</v>
       </c>
@@ -2379,8 +2665,12 @@
       <c r="E69">
         <v>1.332E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45797</v>
       </c>
@@ -2396,8 +2686,22 @@
       <c r="E70">
         <v>1.3520000000000001E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>1.184E-2</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="3"/>
+        <v>0.87573964497041412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45797</v>
       </c>
@@ -2413,8 +2717,22 @@
       <c r="E71">
         <v>2.443E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>2.1590000000000002E-2</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88374948833401556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45797</v>
       </c>
@@ -2430,8 +2748,22 @@
       <c r="E72">
         <v>2.0240000000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>1.6890000000000002E-2</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="3"/>
+        <v>0.83448616600790515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45797</v>
       </c>
@@ -2447,8 +2779,22 @@
       <c r="E73">
         <v>3.5810000000000002E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>3.0920000000000003E-2</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8634459648142977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45797</v>
       </c>
@@ -2464,8 +2810,22 @@
       <c r="E74">
         <v>3.0630000000000001E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74">
+        <v>4.4400000000000004E-3</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>2.6190000000000001E-2</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85504407443682662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45797</v>
       </c>
@@ -2481,8 +2841,22 @@
       <c r="E75">
         <v>1.9869999999999999E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>1.6669999999999997E-2</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="3"/>
+        <v>0.83895319577252125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>45797</v>
       </c>
@@ -2498,8 +2872,22 @@
       <c r="E76">
         <v>3.2750000000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86717557251908395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45797</v>
       </c>
@@ -2515,8 +2903,22 @@
       <c r="E77">
         <v>2.7029999999999998E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>2.3009999999999999E-2</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85127635960044401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45797</v>
       </c>
@@ -2532,8 +2934,22 @@
       <c r="E78">
         <v>3.7179999999999998E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78">
+        <v>4.5300000000000002E-3</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>3.2649999999999998E-2</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="3"/>
+        <v>0.87816030123722433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45797</v>
       </c>
@@ -2549,8 +2965,22 @@
       <c r="E79">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79">
+        <v>2.64E-3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="2"/>
+        <v>1.3260000000000001E-2</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="3"/>
+        <v>0.83396226415094343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45797</v>
       </c>
@@ -2566,8 +2996,22 @@
       <c r="E80">
         <v>8.7500000000000008E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="2"/>
+        <v>7.3500000000000006E-3</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45797</v>
       </c>
@@ -2583,25 +3027,53 @@
       <c r="E81">
         <v>2.3040000000000001E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="2"/>
+        <v>2.053E-2</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89105902777777768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45797</v>
+        <v>45799</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="2"/>
+        <v>1.495E-2</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8681765389082462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45799</v>
       </c>
@@ -2609,19 +3081,30 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>1.7219999999999999E-2</v>
-      </c>
-      <c r="F83">
-        <v>8.1420000000000006E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="2"/>
+        <v>2.1650000000000003E-2</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88729508196721318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45799</v>
       </c>
@@ -2629,19 +3112,30 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="F84">
-        <v>8.9800000000000005E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.3160000000000002E-2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="2"/>
+        <v>2.8270000000000003E-2</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85253317249698435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45799</v>
       </c>
@@ -2649,19 +3143,30 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>3.3160000000000002E-2</v>
-      </c>
-      <c r="F85">
-        <v>0.11244999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="2"/>
+        <v>1.5339999999999999E-2</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85698324022346373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45799</v>
       </c>
@@ -2669,19 +3174,30 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="F86">
-        <v>6.6030000000000005E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.6229999999999998E-2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="2"/>
+        <v>3.1149999999999997E-2</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8597847088048578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45799</v>
       </c>
@@ -2689,19 +3205,30 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>3.6229999999999998E-2</v>
-      </c>
-      <c r="F87">
-        <v>0.12798999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.882E-2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="2"/>
+        <v>1.6709999999999999E-2</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88788522848034002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45799</v>
       </c>
@@ -2709,19 +3236,30 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>1.882E-2</v>
-      </c>
-      <c r="F88">
-        <v>6.8190000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="2"/>
+        <v>2.7459999999999998E-2</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86189579409918393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45799</v>
       </c>
@@ -2729,19 +3267,30 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>3.1859999999999999E-2</v>
-      </c>
-      <c r="F89">
-        <v>0.12113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.0369999999999999E-2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="2"/>
+        <v>1.7569999999999999E-2</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86254295532646041</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45799</v>
       </c>
@@ -2749,19 +3298,30 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>2.0369999999999999E-2</v>
-      </c>
-      <c r="F90">
-        <v>7.3730000000000004E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.4669999999999999E-2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90">
+        <v>5.1700000000000001E-3</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="2"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85087972310354776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45799</v>
       </c>
@@ -2769,19 +3329,30 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>3.4669999999999999E-2</v>
-      </c>
-      <c r="F91">
-        <v>0.13655999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.145E-2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="2"/>
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81921397379912653</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45799</v>
       </c>
@@ -2789,19 +3360,30 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>1.145E-2</v>
-      </c>
-      <c r="F92">
-        <v>4.4080000000000001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.061E-2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="2"/>
+        <v>1.789E-2</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86802523047064528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45799</v>
       </c>
@@ -2809,19 +3391,30 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93">
-        <v>2.061E-2</v>
-      </c>
-      <c r="F93">
-        <v>7.7420000000000003E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.316E-2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="2"/>
+        <v>2.0750000000000001E-2</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8959412780656304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45799</v>
       </c>
@@ -2829,19 +3422,30 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>2.316E-2</v>
-      </c>
-      <c r="F94">
-        <v>8.4430000000000005E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="2"/>
+        <v>3.0860000000000002E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88297567954220313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45799</v>
       </c>
@@ -2849,19 +3453,30 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>3.4950000000000002E-2</v>
-      </c>
-      <c r="F95">
-        <v>0.13244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.3579999999999999E-2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95">
+        <v>3.6900000000000001E-3</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="2"/>
+        <v>2.989E-2</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89011316259678386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45799</v>
       </c>
@@ -2869,39 +3484,61 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>3.3579999999999999E-2</v>
-      </c>
-      <c r="F96">
-        <v>0.13173000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96">
+        <v>5.2900000000000004E-3</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="2"/>
+        <v>2.9660000000000002E-2</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84864091559370536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>3.4950000000000002E-2</v>
-      </c>
-      <c r="F97">
-        <v>0.1241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.58E-2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97">
+        <v>3.8800000000000002E-3</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ref="J97:J125" si="4">E97-I97</f>
+        <v>2.1919999999999999E-2</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" ref="K97:K125" si="5">J97/E97</f>
+        <v>0.84961240310077513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45800</v>
       </c>
@@ -2912,16 +3549,27 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>2.58E-2</v>
-      </c>
-      <c r="F98">
-        <v>9.9449999999999997E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.5870000000000001E-2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98">
+        <v>8.7100000000000007E-3</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="4"/>
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="5"/>
+        <v>0.66331658291457296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45800</v>
       </c>
@@ -2932,16 +3580,27 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>2.5870000000000001E-2</v>
-      </c>
-      <c r="F99">
-        <v>9.1429999999999997E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.104E-2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="4"/>
+        <v>3.4639999999999997E-2</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="5"/>
+        <v>0.84405458089668606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45800</v>
       </c>
@@ -2952,16 +3611,27 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>4.104E-2</v>
-      </c>
-      <c r="F100">
-        <v>0.14326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.6119999999999998E-2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100">
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="4"/>
+        <v>6.0490000000000002E-2</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="5"/>
+        <v>0.91485178463399885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45800</v>
       </c>
@@ -2972,16 +3642,27 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>6.6119999999999998E-2</v>
-      </c>
-      <c r="F101">
-        <v>0.23336999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101">
+        <v>1.171E-2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="4"/>
+        <v>3.5290000000000002E-2</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75085106382978728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45800</v>
       </c>
@@ -2992,16 +3673,27 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F102">
-        <v>0.17912</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.9060000000000001E-2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102">
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="4"/>
+        <v>1.6150000000000001E-2</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="5"/>
+        <v>0.84732423924449107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45800</v>
       </c>
@@ -3012,16 +3704,27 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>1.9060000000000001E-2</v>
-      </c>
-      <c r="F103">
-        <v>7.0569999999999994E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.6850000000000001E-2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103">
+        <v>1.7979999999999999E-2</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="4"/>
+        <v>1.8870000000000001E-2</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="5"/>
+        <v>0.51207598371777474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45800</v>
       </c>
@@ -3032,16 +3735,27 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>3.6850000000000001E-2</v>
-      </c>
-      <c r="F104">
-        <v>0.14238999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.4510000000000001E-2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="4"/>
+        <v>2.0990000000000002E-2</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85638514891880868</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45800</v>
       </c>
@@ -3052,19 +3766,27 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>2.4510000000000001E-2</v>
-      </c>
-      <c r="F105">
-        <v>5.432E-2</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.8110000000000004E-2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105">
+        <v>7.6E-3</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="4"/>
+        <v>6.0510000000000001E-2</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88841579797386583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>45800</v>
       </c>
@@ -3075,16 +3797,27 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>6.8110000000000004E-2</v>
-      </c>
-      <c r="F106">
-        <v>0.25609999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.0519999999999999E-2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="4"/>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8682830930537353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45800</v>
       </c>
@@ -3095,16 +3828,27 @@
         <v>6</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>3.0519999999999999E-2</v>
-      </c>
-      <c r="F107">
-        <v>0.10929999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.8170000000000001E-2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107">
+        <v>4.1900000000000001E-3</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="4"/>
+        <v>2.3980000000000001E-2</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85126020589279383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45800</v>
       </c>
@@ -3115,16 +3859,27 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>2.8170000000000001E-2</v>
-      </c>
-      <c r="F108">
-        <v>0.10738</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.478E-2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="4"/>
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="5"/>
+        <v>0.89548905761500663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45800</v>
       </c>
@@ -3135,16 +3890,27 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109">
-        <v>4.478E-2</v>
-      </c>
-      <c r="F109">
-        <v>0.16599</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.734E-2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="4"/>
+        <v>2.426E-2</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88734455010972935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45800</v>
       </c>
@@ -3155,16 +3921,27 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>2.734E-2</v>
-      </c>
-      <c r="F110">
-        <v>9.8269999999999996E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110">
+        <v>7.77E-3</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="4"/>
+        <v>4.8780000000000004E-2</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86259946949602129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45800</v>
       </c>
@@ -3175,16 +3952,27 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E111">
-        <v>5.6550000000000003E-2</v>
-      </c>
-      <c r="F111">
-        <v>0.20577000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.256E-2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="4"/>
+        <v>1.047E-2</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="5"/>
+        <v>0.83359872611464969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45800</v>
       </c>
@@ -3192,19 +3980,30 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>1.256E-2</v>
-      </c>
-      <c r="F112">
-        <v>5.1240000000000001E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.3189999999999999E-2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="4"/>
+        <v>3.8039999999999997E-2</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88075943505441068</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>45800</v>
       </c>
@@ -3215,16 +4014,27 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>4.3189999999999999E-2</v>
-      </c>
-      <c r="F113">
-        <v>0.17515</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.0370000000000001E-2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="4"/>
+        <v>2.3620000000000002E-2</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="5"/>
+        <v>0.77774119196575575</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45800</v>
       </c>
@@ -3235,16 +4045,27 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>3.0370000000000001E-2</v>
-      </c>
-      <c r="F114">
-        <v>0.12569</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.0040000000000001E-2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114">
+        <v>1.2579999999999999E-2</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="4"/>
+        <v>3.746E-2</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74860111910471616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45800</v>
       </c>
@@ -3255,16 +4076,27 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>5.0040000000000001E-2</v>
-      </c>
-      <c r="F115">
-        <v>0.18176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.8109999999999998E-2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115">
+        <v>1.932E-2</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="4"/>
+        <v>1.8789999999999998E-2</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="5"/>
+        <v>0.49304644450275514</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45800</v>
       </c>
@@ -3275,16 +4107,27 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>3.8109999999999998E-2</v>
-      </c>
-      <c r="F116">
-        <v>0.13627</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.0770000000000001E-2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116">
+        <v>1.289E-2</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="4"/>
+        <v>2.7880000000000002E-2</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="5"/>
+        <v>0.68383615403482956</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45800</v>
       </c>
@@ -3295,16 +4138,27 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>4.0770000000000001E-2</v>
-      </c>
-      <c r="F117">
-        <v>0.14979999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.9049999999999999E-2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117">
+        <v>3.4099999999999998E-3</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="4"/>
+        <v>2.564E-2</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88261617900172118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45800</v>
       </c>
@@ -3315,16 +4169,27 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>2.9049999999999999E-2</v>
-      </c>
-      <c r="F118">
-        <v>0.11876</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.8680000000000001E-2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118">
+        <v>1.7930000000000001E-2</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="4"/>
+        <v>3.075E-2</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="5"/>
+        <v>0.63167625308134756</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45800</v>
       </c>
@@ -3335,16 +4200,27 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>4.8680000000000001E-2</v>
-      </c>
-      <c r="F119">
-        <v>0.19547</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.9960000000000002E-2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119">
+        <v>4.64E-3</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="4"/>
+        <v>3.5320000000000004E-2</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88388388388388395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45800</v>
       </c>
@@ -3355,16 +4231,27 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>3.9960000000000002E-2</v>
-      </c>
-      <c r="F120">
-        <v>0.13272999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.6280000000000001E-2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="4"/>
+        <v>1.8610000000000002E-2</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="5"/>
+        <v>0.70814307458143078</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45800</v>
       </c>
@@ -3375,16 +4262,27 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>2.6280000000000001E-2</v>
-      </c>
-      <c r="F121">
-        <v>0.12263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.3490000000000003E-2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="4"/>
+        <v>3.5290000000000002E-2</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65974948588521221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45800</v>
       </c>
@@ -3395,16 +4293,27 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>5.3490000000000003E-2</v>
-      </c>
-      <c r="F122">
-        <v>0.19818</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.266E-2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122">
+        <v>6.5300000000000002E-3</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="4"/>
+        <v>1.6129999999999999E-2</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="5"/>
+        <v>0.71182700794351272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45800</v>
       </c>
@@ -3415,16 +4324,27 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>2.266E-2</v>
-      </c>
-      <c r="F123">
-        <v>7.6509999999999995E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.6790000000000001E-2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123">
+        <v>3.29E-3</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="4"/>
+        <v>2.35E-2</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8771929824561403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45800</v>
       </c>
@@ -3435,16 +4355,27 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>2.6790000000000001E-2</v>
-      </c>
-      <c r="F124">
-        <v>9.8610000000000003E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.8510000000000001E-2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="4"/>
+        <v>2.5320000000000002E-2</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88810943528586461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45800</v>
       </c>
@@ -3455,50 +4386,52 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>2.8510000000000001E-2</v>
-      </c>
-      <c r="F125">
-        <v>0.10714</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>45800</v>
-      </c>
-      <c r="B126" s="3">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>14</v>
-      </c>
-      <c r="E126">
         <v>4.437E-2</v>
       </c>
-      <c r="F126">
-        <v>0.17354</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="4"/>
+        <v>3.637E-2</v>
+      </c>
+      <c r="K125" s="2">
+        <f t="shared" si="5"/>
+        <v>0.81969799414018485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45800</v>
+        <v>45840</v>
       </c>
       <c r="B127" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>3.7479999999999999E-2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45840</v>
       </c>
@@ -3509,13 +4442,16 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>3.7479999999999999E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.054E-2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45840</v>
       </c>
@@ -3526,13 +4462,16 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>4.054E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.9219999999999999E-2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45840</v>
       </c>
@@ -3543,13 +4482,16 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>2.9219999999999999E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.896E-2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45840</v>
       </c>
@@ -3560,13 +4502,16 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>2.896E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2950000000000002E-2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45840</v>
       </c>
@@ -3577,13 +4522,16 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E132">
-        <v>2.2950000000000002E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.5680000000000001E-2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45840</v>
       </c>
@@ -3594,13 +4542,16 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>2.5680000000000001E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.7979999999999999E-2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45840</v>
       </c>
@@ -3611,13 +4562,16 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>1.7979999999999999E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.3460000000000002E-2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45840</v>
       </c>
@@ -3628,13 +4582,16 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>2.3460000000000002E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2179999999999998E-2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45840</v>
       </c>
@@ -3645,13 +4602,16 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>2.2179999999999998E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4590000000000001E-2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45840</v>
       </c>
@@ -3662,13 +4622,16 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137">
-        <v>2.4590000000000001E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4750000000000003E-2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45840</v>
       </c>
@@ -3679,13 +4642,16 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138">
-        <v>3.4750000000000003E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45840</v>
       </c>
@@ -3696,13 +4662,16 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E139">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4809999999999999E-2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45840</v>
       </c>
@@ -3713,13 +4682,16 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E140">
-        <v>2.4809999999999999E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.1229999999999999E-2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45840</v>
       </c>
@@ -3730,13 +4702,16 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E141">
-        <v>2.1229999999999999E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.576E-2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45840</v>
       </c>
@@ -3744,16 +4719,19 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>1.576E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45840</v>
       </c>
@@ -3764,13 +4742,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>1.9640000000000001E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4709999999999999E-2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45840</v>
       </c>
@@ -3781,13 +4762,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>2.4709999999999999E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.049E-2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45840</v>
       </c>
@@ -3798,13 +4782,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>3.049E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45840</v>
       </c>
@@ -3815,13 +4802,16 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45840</v>
       </c>
@@ -3832,13 +4822,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E147">
-        <v>3.5229999999999997E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.298E-2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45840</v>
       </c>
@@ -3849,13 +4842,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>2.298E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0930000000000001E-2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45840</v>
       </c>
@@ -3866,13 +4862,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>2.0930000000000001E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.3669999999999999E-2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45840</v>
       </c>
@@ -3883,13 +4882,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>3.3669999999999999E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.47E-2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45840</v>
       </c>
@@ -3900,13 +4902,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>2.47E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45840</v>
       </c>
@@ -3917,13 +4922,16 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>3.4950000000000002E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5679999999999999E-2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45840</v>
       </c>
@@ -3934,13 +4942,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>1.5679999999999999E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.1449999999999999E-2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45840</v>
       </c>
@@ -3951,13 +4962,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>3.1449999999999999E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45840</v>
       </c>
@@ -3968,13 +4982,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E155">
-        <v>8.7500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5169999999999999E-2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45840</v>
       </c>
@@ -3985,30 +5002,36 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>1.5169999999999999E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.949E-2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>45840</v>
+        <v>45843</v>
       </c>
       <c r="B157" s="3">
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>1.949E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5740000000000001E-2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>45843</v>
       </c>
@@ -4016,16 +5039,19 @@
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>1.5740000000000001E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.7399999999999995E-3</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>45843</v>
       </c>
@@ -4033,16 +5059,19 @@
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>8.7399999999999995E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.6379999999999999E-2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>45843</v>
       </c>
@@ -4050,16 +5079,19 @@
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>1.6379999999999999E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>45843</v>
       </c>
@@ -4067,16 +5099,19 @@
         <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>8.7500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8780000000000002E-2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>45843</v>
       </c>
@@ -4084,16 +5119,19 @@
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>1.8780000000000002E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>45843</v>
       </c>
@@ -4101,16 +5139,19 @@
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>9.7599999999999996E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>45843</v>
       </c>
@@ -4118,16 +5159,19 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>3.4250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5469999999999999E-2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>45843</v>
       </c>
@@ -4135,16 +5179,19 @@
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>1.5469999999999999E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.0700000000000008E-3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>45843</v>
       </c>
@@ -4152,16 +5199,19 @@
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>8.0700000000000008E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>45843</v>
       </c>
@@ -4169,16 +5219,19 @@
         <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>8.5800000000000008E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8089999999999998E-2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>45843</v>
       </c>
@@ -4186,16 +5239,19 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>1.8089999999999998E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.053E-2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>45843</v>
       </c>
@@ -4203,16 +5259,19 @@
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>2.053E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>45843</v>
       </c>
@@ -4220,16 +5279,19 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>8.7500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.5600000000000008E-3</v>
+      </c>
+      <c r="F170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>45843</v>
       </c>
@@ -4237,16 +5299,19 @@
         <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D171">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>9.5600000000000008E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.6410000000000001E-2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>45843</v>
       </c>
@@ -4254,16 +5319,19 @@
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>1.6410000000000001E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.0959999999999999E-2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>45843</v>
       </c>
@@ -4274,13 +5342,16 @@
         <v>5</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>1.0959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.389E-2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>45843</v>
       </c>
@@ -4291,13 +5362,16 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>1.389E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.712E-2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>45843</v>
       </c>
@@ -4308,13 +5382,16 @@
         <v>5</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>1.712E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.9399999999999992E-3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>45843</v>
       </c>
@@ -4325,13 +5402,16 @@
         <v>5</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E176">
-        <v>9.9399999999999992E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>45843</v>
       </c>
@@ -4342,13 +5422,16 @@
         <v>5</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>7.7799999999999996E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.4200000000000003E-3</v>
+      </c>
+      <c r="F177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>45843</v>
       </c>
@@ -4359,13 +5442,16 @@
         <v>5</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>5.4200000000000003E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.0099999999999998E-3</v>
+      </c>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>45843</v>
       </c>
@@ -4376,13 +5462,16 @@
         <v>5</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E179">
-        <v>8.0099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.2700000000000004E-3</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>45843</v>
       </c>
@@ -4393,13 +5482,16 @@
         <v>5</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>5.2700000000000004E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.8500000000000002E-3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>45843</v>
       </c>
@@ -4410,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>6.8500000000000002E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.9699999999999997E-3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>45843</v>
       </c>
@@ -4427,13 +5522,16 @@
         <v>5</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>7.9699999999999997E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.2900000000000005E-3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>45843</v>
       </c>
@@ -4444,13 +5542,16 @@
         <v>5</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E183">
-        <v>8.2900000000000005E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.179E-2</v>
+      </c>
+      <c r="F183" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>45843</v>
       </c>
@@ -4461,13 +5562,16 @@
         <v>5</v>
       </c>
       <c r="D184">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E184">
-        <v>1.179E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.2900000000000005E-3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45843</v>
       </c>
@@ -4478,13 +5582,16 @@
         <v>5</v>
       </c>
       <c r="D185">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E185">
-        <v>8.2900000000000005E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="F185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>45843</v>
       </c>
@@ -4495,27 +5602,896 @@
         <v>5</v>
       </c>
       <c r="D186">
+        <v>15</v>
+      </c>
+      <c r="E186">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B187" s="3">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>8.1420000000000006E-2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B188" s="3">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B189" s="3">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>0.11244999999999999</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B190" s="3">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190">
+        <v>6.6030000000000005E-2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B191" s="3">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>0.12798999999999999</v>
+      </c>
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="E192">
+        <v>6.8190000000000001E-2</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193">
+        <v>0.12113</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B194" s="3">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194">
+        <v>7.3730000000000004E-2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195">
+        <v>9</v>
+      </c>
+      <c r="E195">
+        <v>0.13655999999999999</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B196" s="3">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>4.4080000000000001E-2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B197" s="3">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197">
+        <v>11</v>
+      </c>
+      <c r="E197">
+        <v>7.7420000000000003E-2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B198" s="3">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>8.4430000000000005E-2</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B199" s="3">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199">
+        <v>13</v>
+      </c>
+      <c r="E199">
+        <v>0.13244</v>
+      </c>
+      <c r="F199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B200" s="3">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200">
         <v>14</v>
       </c>
-      <c r="E186">
-        <v>4.3899999999999998E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
-        <v>45843</v>
-      </c>
-      <c r="B187" s="3">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="E200">
+        <v>0.13173000000000001</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B201" s="3">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201">
+        <v>15</v>
+      </c>
+      <c r="E201">
+        <v>0.1241</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B202" s="3">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>9.9449999999999997E-2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B203" s="3">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>9.1429999999999997E-2</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B204" s="3">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204">
+        <v>0.14326</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B205" s="3">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>0.23336999999999999</v>
+      </c>
+      <c r="F205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B206" s="3">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206">
         <v>5</v>
       </c>
-      <c r="D187">
-        <v>15</v>
-      </c>
-      <c r="E187">
-        <v>1.0279999999999999E-2</v>
+      <c r="E206">
+        <v>0.17912</v>
+      </c>
+      <c r="F206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B207" s="3">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <v>7.0569999999999994E-2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B208" s="3">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>7</v>
+      </c>
+      <c r="E208">
+        <v>0.14238999999999999</v>
+      </c>
+      <c r="F208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B209" s="3">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>8</v>
+      </c>
+      <c r="E209">
+        <v>5.432E-2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B210" s="3">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="F211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B212" s="3">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212">
+        <v>11</v>
+      </c>
+      <c r="E212">
+        <v>0.10738</v>
+      </c>
+      <c r="F212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>12</v>
+      </c>
+      <c r="E213">
+        <v>0.16599</v>
+      </c>
+      <c r="F213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B214" s="3">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>13</v>
+      </c>
+      <c r="E214">
+        <v>9.8269999999999996E-2</v>
+      </c>
+      <c r="F214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B215" s="3">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>14</v>
+      </c>
+      <c r="E215">
+        <v>0.20577000000000001</v>
+      </c>
+      <c r="F215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B216" s="3">
+        <v>2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>15</v>
+      </c>
+      <c r="E216">
+        <v>5.1240000000000001E-2</v>
+      </c>
+      <c r="F216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B217" s="3">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>0.17515</v>
+      </c>
+      <c r="F217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B218" s="3">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>0.12569</v>
+      </c>
+      <c r="F218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>0.18176</v>
+      </c>
+      <c r="F219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>4</v>
+      </c>
+      <c r="E220">
+        <v>0.13627</v>
+      </c>
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B221" s="3">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="F221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B222" s="3">
+        <v>2</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <v>0.11876</v>
+      </c>
+      <c r="F222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B223" s="3">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>7</v>
+      </c>
+      <c r="E223">
+        <v>0.19547</v>
+      </c>
+      <c r="F223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>0.13272999999999999</v>
+      </c>
+      <c r="F224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B225" s="3">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225">
+        <v>0.12263</v>
+      </c>
+      <c r="F225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>10</v>
+      </c>
+      <c r="E226">
+        <v>0.19818</v>
+      </c>
+      <c r="F226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B227" s="3">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>11</v>
+      </c>
+      <c r="E227">
+        <v>7.6509999999999995E-2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>9.8610000000000003E-2</v>
+      </c>
+      <c r="F228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B229" s="3">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>13</v>
+      </c>
+      <c r="E229">
+        <v>0.10714</v>
+      </c>
+      <c r="F229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B230" s="3">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>14</v>
+      </c>
+      <c r="E230">
+        <v>0.17354</v>
+      </c>
+      <c r="F230" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4526,22 +6502,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE0A4B-1E6F-4F75-BC10-959C71F80662}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J15" sqref="J15:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>6.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>2.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>7.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>2.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>2.7399999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/plant/petal_weight_3.xlsx
+++ b/data/raw/plant/petal_weight_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FC635DE-E49E-4217-96B5-B654307EF5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B48F6203-12FF-469E-9C92-AA5827C1A70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="26">
   <si>
     <t>2025-03-26</t>
   </si>
@@ -490,8 +490,8 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4407,6 +4407,18 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
       <c r="F126" t="s">
         <v>19</v>
       </c>
@@ -4430,6 +4442,17 @@
       <c r="F127" t="s">
         <v>19</v>
       </c>
+      <c r="I127">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ref="J127:J186" si="6">E127-I127</f>
+        <v>3.3090000000000001E-2</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" ref="K127:K186" si="7">J127/E127</f>
+        <v>0.8828708644610459</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
@@ -4450,8 +4473,19 @@
       <c r="F128" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I128">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="6"/>
+        <v>3.6360000000000003E-2</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="7"/>
+        <v>0.89689195855944759</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45840</v>
       </c>
@@ -4470,8 +4504,19 @@
       <c r="F129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I129">
+        <v>3.2100000000000002E-3</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="6"/>
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="7"/>
+        <v>0.89014373716632444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45840</v>
       </c>
@@ -4490,8 +4535,19 @@
       <c r="F130" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I130">
+        <v>3.13E-3</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="6"/>
+        <v>2.5829999999999999E-2</v>
+      </c>
+      <c r="K130" s="2">
+        <f t="shared" si="7"/>
+        <v>0.89191988950276235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45840</v>
       </c>
@@ -4510,8 +4566,19 @@
       <c r="F131" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I131">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="6"/>
+        <v>2.001E-2</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" si="7"/>
+        <v>0.87189542483660121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45840</v>
       </c>
@@ -4530,8 +4597,19 @@
       <c r="F132" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I132">
+        <v>4.5700000000000003E-3</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="6"/>
+        <v>2.111E-2</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8220404984423676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45840</v>
       </c>
@@ -4550,8 +4628,19 @@
       <c r="F133" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I133">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="6"/>
+        <v>1.5779999999999999E-2</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8776418242491657</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45840</v>
       </c>
@@ -4570,8 +4659,19 @@
       <c r="F134" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I134">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="6"/>
+        <v>2.0870000000000003E-2</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88959931798806491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45840</v>
       </c>
@@ -4590,8 +4690,19 @@
       <c r="F135" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I135">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="6"/>
+        <v>1.8679999999999999E-2</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84220018034265109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45840</v>
       </c>
@@ -4610,8 +4721,19 @@
       <c r="F136" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I136">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="6"/>
+        <v>2.1870000000000001E-2</v>
+      </c>
+      <c r="K136" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88938592923952831</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45840</v>
       </c>
@@ -4630,8 +4752,19 @@
       <c r="F137" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I137">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>3.0550000000000004E-2</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="7"/>
+        <v>0.87913669064748201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45840</v>
       </c>
@@ -4650,8 +4783,19 @@
       <c r="F138" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I138">
+        <v>1.64E-3</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="6"/>
+        <v>9.9600000000000001E-3</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85862068965517246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45840</v>
       </c>
@@ -4670,8 +4814,19 @@
       <c r="F139" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I139">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="6"/>
+        <v>2.147E-2</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86537686416767434</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45840</v>
       </c>
@@ -4690,8 +4845,19 @@
       <c r="F140" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I140">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="6"/>
+        <v>1.9869999999999999E-2</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="7"/>
+        <v>0.93593970796043335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45840</v>
       </c>
@@ -4710,8 +4876,19 @@
       <c r="F141" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I141">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>1.3979999999999999E-2</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88705583756345174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45840</v>
       </c>
@@ -4730,8 +4907,19 @@
       <c r="F142" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I142">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>1.6760000000000001E-2</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85336048879837068</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45840</v>
       </c>
@@ -4750,8 +4938,19 @@
       <c r="F143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I143">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="6"/>
+        <v>2.1489999999999999E-2</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86968838526912173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45840</v>
       </c>
@@ -4770,8 +4969,19 @@
       <c r="F144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I144">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="6"/>
+        <v>2.5939999999999998E-2</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85077074450639545</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45840</v>
       </c>
@@ -4790,8 +5000,19 @@
       <c r="F145" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I145">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="6"/>
+        <v>1.6169999999999997E-2</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84218749999999987</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45840</v>
       </c>
@@ -4810,8 +5031,19 @@
       <c r="F146" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I146">
+        <v>4.8599999999999997E-3</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="6"/>
+        <v>3.0369999999999998E-2</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86204938972466649</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45840</v>
       </c>
@@ -4830,8 +5062,19 @@
       <c r="F147" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I147">
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="6"/>
+        <v>1.975E-2</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85944299390774581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45840</v>
       </c>
@@ -4850,8 +5093,19 @@
       <c r="F148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I148">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="6"/>
+        <v>1.787E-2</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85379837553750593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45840</v>
       </c>
@@ -4870,8 +5124,19 @@
       <c r="F149" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I149">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="6"/>
+        <v>2.845E-2</v>
+      </c>
+      <c r="K149" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84496584496584504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45840</v>
       </c>
@@ -4890,8 +5155,19 @@
       <c r="F150" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I150">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="6"/>
+        <v>2.12E-2</v>
+      </c>
+      <c r="K150" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8582995951417004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45840</v>
       </c>
@@ -4910,8 +5186,19 @@
       <c r="F151" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I151">
+        <v>5.62E-3</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="6"/>
+        <v>2.9330000000000002E-2</v>
+      </c>
+      <c r="K151" s="2">
+        <f t="shared" si="7"/>
+        <v>0.83919885550786844</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45840</v>
       </c>
@@ -4930,8 +5217,19 @@
       <c r="F152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I152">
+        <v>2.14E-3</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="6"/>
+        <v>1.354E-2</v>
+      </c>
+      <c r="K152" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86352040816326536</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45840</v>
       </c>
@@ -4950,8 +5248,19 @@
       <c r="F153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I153">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="6"/>
+        <v>2.7649999999999997E-2</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="7"/>
+        <v>0.87917329093799679</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45840</v>
       </c>
@@ -4970,8 +5279,19 @@
       <c r="F154" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I154">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="6"/>
+        <v>7.3100000000000005E-3</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="7"/>
+        <v>0.83542857142857141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45840</v>
       </c>
@@ -4990,8 +5310,19 @@
       <c r="F155" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I155">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="6"/>
+        <v>1.2930000000000001E-2</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85234014502307187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45840</v>
       </c>
@@ -5010,8 +5341,19 @@
       <c r="F156" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I156">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="6"/>
+        <v>1.6480000000000002E-2</v>
+      </c>
+      <c r="K156" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84556182657773227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45843</v>
       </c>
@@ -5030,8 +5372,19 @@
       <c r="F157" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I157">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="6"/>
+        <v>1.362E-2</v>
+      </c>
+      <c r="K157" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86531130876747142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>45843</v>
       </c>
@@ -5050,8 +5403,19 @@
       <c r="F158" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I158">
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="6"/>
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="K158" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90732265446224258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>45843</v>
       </c>
@@ -5070,8 +5434,19 @@
       <c r="F159" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I159">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="6"/>
+        <v>1.414E-2</v>
+      </c>
+      <c r="K159" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86324786324786329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>45843</v>
       </c>
@@ -5090,8 +5465,19 @@
       <c r="F160" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I160">
+        <v>1.31E-3</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="6"/>
+        <v>7.4400000000000004E-3</v>
+      </c>
+      <c r="K160" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8502857142857142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>45843</v>
       </c>
@@ -5110,8 +5496,19 @@
       <c r="F161" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I161">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="6"/>
+        <v>1.6690000000000003E-2</v>
+      </c>
+      <c r="K161" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88871139510117159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>45843</v>
       </c>
@@ -5130,8 +5527,19 @@
       <c r="F162" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I162">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="6"/>
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="K162" s="2">
+        <f t="shared" si="7"/>
+        <v>0.87602459016393452</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>45843</v>
       </c>
@@ -5150,8 +5558,19 @@
       <c r="F163" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I163">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="6"/>
+        <v>3.0540000000000001E-2</v>
+      </c>
+      <c r="K163" s="2">
+        <f t="shared" si="7"/>
+        <v>0.89167883211678833</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>45843</v>
       </c>
@@ -5170,8 +5589,19 @@
       <c r="F164" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I164">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="6"/>
+        <v>1.3439999999999999E-2</v>
+      </c>
+      <c r="K164" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86877828054298634</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>45843</v>
       </c>
@@ -5190,8 +5620,19 @@
       <c r="F165" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I165">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="6"/>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K165" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8798017348203222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>45843</v>
       </c>
@@ -5210,8 +5651,19 @@
       <c r="F166" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I166">
+        <v>1E-3</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="6"/>
+        <v>7.5800000000000008E-3</v>
+      </c>
+      <c r="K166" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88344988344988351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>45843</v>
       </c>
@@ -5230,8 +5682,19 @@
       <c r="F167" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I167">
+        <v>2.66E-3</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="6"/>
+        <v>1.5429999999999999E-2</v>
+      </c>
+      <c r="K167" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85295743504698729</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>45843</v>
       </c>
@@ -5250,8 +5713,19 @@
       <c r="F168" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I168">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="6"/>
+        <v>1.7579999999999998E-2</v>
+      </c>
+      <c r="K168" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85630784218217237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>45843</v>
       </c>
@@ -5270,8 +5744,19 @@
       <c r="F169" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I169">
+        <v>1.32E-3</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="6"/>
+        <v>7.4300000000000008E-3</v>
+      </c>
+      <c r="K169" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8491428571428572</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>45843</v>
       </c>
@@ -5290,8 +5775,19 @@
       <c r="F170" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I170">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="6"/>
+        <v>8.0600000000000012E-3</v>
+      </c>
+      <c r="K170" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84309623430962344</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>45843</v>
       </c>
@@ -5310,8 +5806,19 @@
       <c r="F171" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I171">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="6"/>
+        <v>1.4400000000000001E-2</v>
+      </c>
+      <c r="K171" s="2">
+        <f t="shared" si="7"/>
+        <v>0.87751371115173682</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>45843</v>
       </c>
@@ -5330,8 +5837,19 @@
       <c r="F172" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I172">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="6"/>
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="K172" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90967153284671531</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>45843</v>
       </c>
@@ -5350,8 +5868,19 @@
       <c r="F173" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I173">
+        <v>1.72E-3</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="6"/>
+        <v>1.217E-2</v>
+      </c>
+      <c r="K173" s="2">
+        <f t="shared" si="7"/>
+        <v>0.87616990640748749</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>45843</v>
       </c>
@@ -5370,8 +5899,19 @@
       <c r="F174" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I174">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="6"/>
+        <v>1.524E-2</v>
+      </c>
+      <c r="K174" s="2">
+        <f t="shared" si="7"/>
+        <v>0.89018691588785048</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>45843</v>
       </c>
@@ -5390,8 +5930,19 @@
       <c r="F175" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I175">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="6"/>
+        <v>8.3899999999999999E-3</v>
+      </c>
+      <c r="K175" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84406438631790748</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>45843</v>
       </c>
@@ -5410,8 +5961,19 @@
       <c r="F176" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I176">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="6"/>
+        <v>6.5599999999999999E-3</v>
+      </c>
+      <c r="K176" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84318766066838047</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>45843</v>
       </c>
@@ -5430,8 +5992,19 @@
       <c r="F177" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I177">
+        <v>2.9E-4</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="6"/>
+        <v>5.13E-3</v>
+      </c>
+      <c r="K177" s="2">
+        <f t="shared" si="7"/>
+        <v>0.94649446494464939</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>45843</v>
       </c>
@@ -5450,8 +6023,19 @@
       <c r="F178" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I178">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="6"/>
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="K178" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88014981273408244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>45843</v>
       </c>
@@ -5470,8 +6054,19 @@
       <c r="F179" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I179">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="6"/>
+        <v>4.4900000000000001E-3</v>
+      </c>
+      <c r="K179" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85199240986717262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>45843</v>
       </c>
@@ -5490,8 +6085,19 @@
       <c r="F180" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I180">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="6"/>
+        <v>6.3E-3</v>
+      </c>
+      <c r="K180" s="2">
+        <f t="shared" si="7"/>
+        <v>0.91970802919708028</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>45843</v>
       </c>
@@ -5510,8 +6116,19 @@
       <c r="F181" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I181">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="6"/>
+        <v>7.2099999999999994E-3</v>
+      </c>
+      <c r="K181" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90464240903387705</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>45843</v>
       </c>
@@ -5530,8 +6147,19 @@
       <c r="F182" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I182">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="6"/>
+        <v>7.5400000000000007E-3</v>
+      </c>
+      <c r="K182" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90952955367913146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>45843</v>
       </c>
@@ -5550,8 +6178,19 @@
       <c r="F183" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I183">
+        <v>1.58E-3</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="6"/>
+        <v>1.021E-2</v>
+      </c>
+      <c r="K183" s="2">
+        <f t="shared" si="7"/>
+        <v>0.86598812553011029</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>45843</v>
       </c>
@@ -5570,8 +6209,19 @@
       <c r="F184" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I184">
+        <v>1.31E-3</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="6"/>
+        <v>6.9800000000000001E-3</v>
+      </c>
+      <c r="K184" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84197828709288292</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45843</v>
       </c>
@@ -5590,8 +6240,19 @@
       <c r="F185" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I185">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K185" s="2">
+        <f t="shared" si="7"/>
+        <v>0.91116173120728938</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>45843</v>
       </c>
@@ -5610,8 +6271,19 @@
       <c r="F186" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I186">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="6"/>
+        <v>8.2399999999999991E-3</v>
+      </c>
+      <c r="K186" s="2">
+        <f t="shared" si="7"/>
+        <v>0.80155642023346296</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>45799</v>
       </c>
@@ -5631,7 +6303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>45799</v>
       </c>
@@ -5651,7 +6323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>45799</v>
       </c>
@@ -5671,7 +6343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45799</v>
       </c>
@@ -5691,7 +6363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>45799</v>
       </c>
@@ -5711,7 +6383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>45799</v>
       </c>

--- a/data/raw/plant/petal_weight_3.xlsx
+++ b/data/raw/plant/petal_weight_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B48F6203-12FF-469E-9C92-AA5827C1A70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2857CB36-67E7-454C-B34D-7283D87CFA61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="26">
   <si>
     <t>2025-03-26</t>
   </si>
@@ -487,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126:D126"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F237" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7164,6 +7164,126 @@
       </c>
       <c r="F230" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B231" s="3">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>2.666E-2</v>
+      </c>
+      <c r="F231" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>1.728E-2</v>
+      </c>
+      <c r="F232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B233" s="3">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+      <c r="E233">
+        <v>3.3619999999999997E-2</v>
+      </c>
+      <c r="F233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B234" s="3">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="F234" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B235" s="3">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>2.997E-2</v>
+      </c>
+      <c r="F235" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B236" s="3">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>1.5890000000000001E-2</v>
+      </c>
+      <c r="F236" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/plant/petal_weight_3.xlsx
+++ b/data/raw/plant/petal_weight_3.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gretchen/GitHub/CApoppy/data/raw/plant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2857CB36-67E7-454C-B34D-7283D87CFA61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DD0D9-C0CA-2847-A247-D1C31F57763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15640" yWindow="1820" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petal_2025_low" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,11 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,21 +502,20 @@
   <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F237" sqref="F237"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
@@ -535,11 +546,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -558,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>9.9570000000000007</v>
+        <v>35.29</v>
       </c>
       <c r="I2">
         <v>1.7600000000000001E-2</v>
@@ -572,11 +583,11 @@
         <v>0.88942639944713198</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -595,7 +606,7 @@
         <v>3.6</v>
       </c>
       <c r="H3">
-        <v>13.920999999999999</v>
+        <v>28.725999999999999</v>
       </c>
       <c r="I3">
         <v>1.1169999999999999E-2</v>
@@ -609,11 +620,11 @@
         <v>0.89854677565849228</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -632,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>13.526999999999999</v>
+        <v>31.280999999999999</v>
       </c>
       <c r="I4">
         <v>2.1229999999999999E-2</v>
@@ -646,11 +657,11 @@
         <v>0.89634801288936627</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -667,6 +678,9 @@
       </c>
       <c r="G5">
         <v>4.0999999999999996</v>
+      </c>
+      <c r="H5">
+        <v>29.457999999999998</v>
       </c>
       <c r="I5">
         <v>1.7819999999999999E-2</v>
@@ -680,11 +694,11 @@
         <v>0.89858866378329161</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -701,6 +715,9 @@
       </c>
       <c r="G6">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H6">
+        <v>31.978999999999999</v>
       </c>
       <c r="I6">
         <v>1.9980000000000001E-2</v>
@@ -714,11 +731,11 @@
         <v>0.89312078741842305</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -748,11 +765,11 @@
         <v>0.89126549094375607</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -782,11 +799,11 @@
         <v>0.88140556368960477</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -816,11 +833,11 @@
         <v>0.89498930446619562</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -850,11 +867,11 @@
         <v>0.89503624185705111</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -884,11 +901,11 @@
         <v>0.89986394557823124</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -918,11 +935,11 @@
         <v>0.88673316708229422</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -952,11 +969,11 @@
         <v>0.8932833693128589</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -986,11 +1003,11 @@
         <v>0.89796242392167247</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -1020,11 +1037,11 @@
         <v>0.8909879447221406</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -1054,11 +1071,11 @@
         <v>0.88238259262370833</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45744</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -1085,11 +1102,11 @@
         <v>0.88560411311053988</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45744</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -1116,11 +1133,11 @@
         <v>0.87618610345883075</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45744</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -1147,11 +1164,11 @@
         <v>0.8274971297359357</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45744</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -1178,11 +1195,11 @@
         <v>0.85155279503105596</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45744</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -1209,11 +1226,11 @@
         <v>0.90061070530475396</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45744</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1240,11 +1257,11 @@
         <v>0.87843538284545564</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45744</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1271,11 +1288,11 @@
         <v>0.89876049580167927</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45744</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1302,11 +1319,11 @@
         <v>0.94517728505940679</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45744</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1333,11 +1350,11 @@
         <v>0.90678845754619053</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45744</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1364,11 +1381,11 @@
         <v>0.8796781665244422</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45744</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -1395,11 +1412,11 @@
         <v>0.89387864207431167</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45744</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -1426,11 +1443,11 @@
         <v>0.89800285306704708</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45744</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -1457,11 +1474,11 @@
         <v>0.90443037974683538</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45744</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -1488,11 +1505,11 @@
         <v>0.88381201044386415</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45744</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -1519,11 +1536,11 @@
         <v>0.84547160156916257</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45744</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -1550,11 +1567,11 @@
         <v>0.87494973864093273</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45744</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -1581,11 +1598,11 @@
         <v>0.87462686567164183</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45744</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -1612,11 +1629,11 @@
         <v>0.88823972860912181</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45744</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -1643,11 +1660,11 @@
         <v>0.90492505353319064</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45744</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -1674,11 +1691,11 @@
         <v>0.87348048624440178</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45744</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -1705,11 +1722,11 @@
         <v>0.88022143935581276</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45744</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -1736,11 +1753,11 @@
         <v>0.89602543720190786</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45744</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -1767,11 +1784,11 @@
         <v>0.87694122272459207</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45744</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -1798,11 +1815,11 @@
         <v>0.87806851901807381</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45744</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -1829,11 +1846,11 @@
         <v>0.85216998191681748</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45744</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
@@ -1860,11 +1877,11 @@
         <v>0.88634448954583744</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45744</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
@@ -1891,11 +1908,11 @@
         <v>0.88117817694968192</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45744</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -1922,11 +1939,11 @@
         <v>0.88404939106901215</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45744</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
@@ -1953,11 +1970,11 @@
         <v>0.88183730715287512</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45744</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
@@ -1984,11 +2001,11 @@
         <v>0.87729533282325944</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45764</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
@@ -2015,11 +2032,11 @@
         <v>0.99294283697953423</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45764</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
@@ -2046,11 +2063,11 @@
         <v>0.86161399202209266</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45764</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
@@ -2077,11 +2094,11 @@
         <v>0.88372093023255816</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45764</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
@@ -2108,11 +2125,11 @@
         <v>0.86937179832839029</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45764</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
@@ -2139,11 +2156,11 @@
         <v>0.88395007663674185</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45764</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
@@ -2170,11 +2187,11 @@
         <v>0.90659811482433594</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45764</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
@@ -2201,11 +2218,11 @@
         <v>0.88915630431875914</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45764</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
@@ -2232,11 +2249,11 @@
         <v>0.90684487646820566</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45764</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
@@ -2263,11 +2280,11 @@
         <v>0.88888888888888895</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45764</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
@@ -2294,11 +2311,11 @@
         <v>0.86370056497175152</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45764</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
@@ -2325,11 +2342,11 @@
         <v>0.88883888388838883</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45764</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
@@ -2356,11 +2373,11 @@
         <v>0.85805330243337197</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45764</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -2387,11 +2404,11 @@
         <v>0.86084828711256112</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45764</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
@@ -2418,11 +2435,11 @@
         <v>0.89538025994080561</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45764</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -2449,11 +2466,11 @@
         <v>0.88372530573847607</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45797</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -2480,11 +2497,11 @@
         <v>0.8761210762331838</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45797</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" t="s">
@@ -2514,11 +2531,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45797</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
@@ -2545,11 +2562,11 @@
         <v>0.89123451124368969</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45797</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
@@ -2576,11 +2593,11 @@
         <v>0.85631882538017834</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45797</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
@@ -2607,11 +2624,11 @@
         <v>0.84203480589022761</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45797</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
@@ -2628,11 +2645,11 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45797</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
@@ -2649,11 +2666,11 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45797</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
@@ -2670,11 +2687,11 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45797</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
@@ -2701,11 +2718,11 @@
         <v>0.87573964497041412</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45797</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
@@ -2732,11 +2749,11 @@
         <v>0.88374948833401556</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45797</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
@@ -2763,11 +2780,11 @@
         <v>0.83448616600790515</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45797</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" t="s">
@@ -2794,11 +2811,11 @@
         <v>0.8634459648142977</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45797</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
@@ -2825,11 +2842,11 @@
         <v>0.85504407443682662</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45797</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
@@ -2856,11 +2873,11 @@
         <v>0.83895319577252125</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45797</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>2</v>
       </c>
       <c r="C76" t="s">
@@ -2887,11 +2904,11 @@
         <v>0.86717557251908395</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45797</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
@@ -2918,11 +2935,11 @@
         <v>0.85127635960044401</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45797</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
@@ -2949,11 +2966,11 @@
         <v>0.87816030123722433</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45797</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
@@ -2980,11 +2997,11 @@
         <v>0.83396226415094343</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45797</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>2</v>
       </c>
       <c r="C80" t="s">
@@ -3011,11 +3028,11 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45797</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" t="s">
@@ -3042,11 +3059,11 @@
         <v>0.89105902777777768</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45799</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>2</v>
       </c>
       <c r="C82" t="s">
@@ -3073,11 +3090,11 @@
         <v>0.8681765389082462</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45799</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>2</v>
       </c>
       <c r="C83" t="s">
@@ -3104,11 +3121,11 @@
         <v>0.88729508196721318</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45799</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
@@ -3135,11 +3152,11 @@
         <v>0.85253317249698435</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45799</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
@@ -3166,11 +3183,11 @@
         <v>0.85698324022346373</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45799</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" t="s">
@@ -3197,11 +3214,11 @@
         <v>0.8597847088048578</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45799</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" t="s">
@@ -3228,11 +3245,11 @@
         <v>0.88788522848034002</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45799</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" t="s">
@@ -3259,11 +3276,11 @@
         <v>0.86189579409918393</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45799</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
@@ -3290,11 +3307,11 @@
         <v>0.86254295532646041</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45799</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" t="s">
@@ -3321,11 +3338,11 @@
         <v>0.85087972310354776</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45799</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" t="s">
@@ -3352,11 +3369,11 @@
         <v>0.81921397379912653</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45799</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
@@ -3383,11 +3400,11 @@
         <v>0.86802523047064528</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45799</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
@@ -3414,11 +3431,11 @@
         <v>0.8959412780656304</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45799</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
@@ -3445,11 +3462,11 @@
         <v>0.88297567954220313</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45799</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" t="s">
@@ -3476,11 +3493,11 @@
         <v>0.89011316259678386</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45799</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" t="s">
@@ -3507,11 +3524,11 @@
         <v>0.84864091559370536</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45800</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
@@ -3538,11 +3555,11 @@
         <v>0.84961240310077513</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45800</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" t="s">
@@ -3569,11 +3586,11 @@
         <v>0.66331658291457296</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45800</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
@@ -3600,11 +3617,11 @@
         <v>0.84405458089668606</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45800</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
@@ -3631,11 +3648,11 @@
         <v>0.91485178463399885</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45800</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" t="s">
@@ -3662,11 +3679,11 @@
         <v>0.75085106382978728</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45800</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
@@ -3693,11 +3710,11 @@
         <v>0.84732423924449107</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45800</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" t="s">
@@ -3724,11 +3741,11 @@
         <v>0.51207598371777474</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45800</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
@@ -3755,11 +3772,11 @@
         <v>0.85638514891880868</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45800</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
@@ -3786,11 +3803,11 @@
         <v>0.88841579797386583</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45800</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" t="s">
@@ -3817,11 +3834,11 @@
         <v>0.8682830930537353</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45800</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" t="s">
@@ -3848,11 +3865,11 @@
         <v>0.85126020589279383</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45800</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>2</v>
       </c>
       <c r="C108" t="s">
@@ -3879,11 +3896,11 @@
         <v>0.89548905761500663</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45800</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>2</v>
       </c>
       <c r="C109" t="s">
@@ -3910,11 +3927,11 @@
         <v>0.88734455010972935</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45800</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
@@ -3941,11 +3958,11 @@
         <v>0.86259946949602129</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45800</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" t="s">
@@ -3972,11 +3989,11 @@
         <v>0.83359872611464969</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45800</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112">
         <v>2</v>
       </c>
       <c r="C112" t="s">
@@ -4003,11 +4020,11 @@
         <v>0.88075943505441068</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45800</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" t="s">
@@ -4034,11 +4051,11 @@
         <v>0.77774119196575575</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45800</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
@@ -4065,11 +4082,11 @@
         <v>0.74860111910471616</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45800</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" t="s">
@@ -4096,11 +4113,11 @@
         <v>0.49304644450275514</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45800</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
@@ -4127,11 +4144,11 @@
         <v>0.68383615403482956</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45800</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>2</v>
       </c>
       <c r="C117" t="s">
@@ -4158,11 +4175,11 @@
         <v>0.88261617900172118</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45800</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" t="s">
@@ -4189,11 +4206,11 @@
         <v>0.63167625308134756</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45800</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" t="s">
@@ -4220,11 +4237,11 @@
         <v>0.88388388388388395</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45800</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
@@ -4251,11 +4268,11 @@
         <v>0.70814307458143078</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45800</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" t="s">
@@ -4282,11 +4299,11 @@
         <v>0.65974948588521221</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45800</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
@@ -4313,11 +4330,11 @@
         <v>0.71182700794351272</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45800</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" t="s">
@@ -4344,11 +4361,11 @@
         <v>0.8771929824561403</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45800</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
@@ -4375,11 +4392,11 @@
         <v>0.88810943528586461</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45800</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" t="s">
@@ -4406,11 +4423,11 @@
         <v>0.81969799414018485</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45800</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
@@ -4423,11 +4440,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45840</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>3</v>
       </c>
       <c r="C127" t="s">
@@ -4454,11 +4471,11 @@
         <v>0.8828708644610459</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45840</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>3</v>
       </c>
       <c r="C128" t="s">
@@ -4485,11 +4502,11 @@
         <v>0.89689195855944759</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45840</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>3</v>
       </c>
       <c r="C129" t="s">
@@ -4516,11 +4533,11 @@
         <v>0.89014373716632444</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45840</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130">
         <v>3</v>
       </c>
       <c r="C130" t="s">
@@ -4547,11 +4564,11 @@
         <v>0.89191988950276235</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45840</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>3</v>
       </c>
       <c r="C131" t="s">
@@ -4578,11 +4595,11 @@
         <v>0.87189542483660121</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45840</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>3</v>
       </c>
       <c r="C132" t="s">
@@ -4609,11 +4626,11 @@
         <v>0.8220404984423676</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45840</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
         <v>3</v>
       </c>
       <c r="C133" t="s">
@@ -4640,11 +4657,11 @@
         <v>0.8776418242491657</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45840</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134">
         <v>3</v>
       </c>
       <c r="C134" t="s">
@@ -4671,11 +4688,11 @@
         <v>0.88959931798806491</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45840</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135">
         <v>3</v>
       </c>
       <c r="C135" t="s">
@@ -4702,11 +4719,11 @@
         <v>0.84220018034265109</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45840</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>3</v>
       </c>
       <c r="C136" t="s">
@@ -4733,11 +4750,11 @@
         <v>0.88938592923952831</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45840</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>3</v>
       </c>
       <c r="C137" t="s">
@@ -4764,11 +4781,11 @@
         <v>0.87913669064748201</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45840</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>3</v>
       </c>
       <c r="C138" t="s">
@@ -4795,11 +4812,11 @@
         <v>0.85862068965517246</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45840</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>3</v>
       </c>
       <c r="C139" t="s">
@@ -4826,11 +4843,11 @@
         <v>0.86537686416767434</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45840</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>3</v>
       </c>
       <c r="C140" t="s">
@@ -4857,11 +4874,11 @@
         <v>0.93593970796043335</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45840</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141">
         <v>3</v>
       </c>
       <c r="C141" t="s">
@@ -4888,11 +4905,11 @@
         <v>0.88705583756345174</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45840</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142">
         <v>3</v>
       </c>
       <c r="C142" t="s">
@@ -4919,11 +4936,11 @@
         <v>0.85336048879837068</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45840</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143">
         <v>3</v>
       </c>
       <c r="C143" t="s">
@@ -4950,11 +4967,11 @@
         <v>0.86968838526912173</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45840</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>3</v>
       </c>
       <c r="C144" t="s">
@@ -4981,11 +4998,11 @@
         <v>0.85077074450639545</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45840</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>3</v>
       </c>
       <c r="C145" t="s">
@@ -5012,11 +5029,11 @@
         <v>0.84218749999999987</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45840</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>3</v>
       </c>
       <c r="C146" t="s">
@@ -5043,11 +5060,11 @@
         <v>0.86204938972466649</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45840</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>3</v>
       </c>
       <c r="C147" t="s">
@@ -5074,11 +5091,11 @@
         <v>0.85944299390774581</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45840</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>3</v>
       </c>
       <c r="C148" t="s">
@@ -5105,11 +5122,11 @@
         <v>0.85379837553750593</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45840</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149">
         <v>3</v>
       </c>
       <c r="C149" t="s">
@@ -5136,11 +5153,11 @@
         <v>0.84496584496584504</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45840</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150">
         <v>3</v>
       </c>
       <c r="C150" t="s">
@@ -5167,11 +5184,11 @@
         <v>0.8582995951417004</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45840</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151">
         <v>3</v>
       </c>
       <c r="C151" t="s">
@@ -5198,11 +5215,11 @@
         <v>0.83919885550786844</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45840</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152">
         <v>3</v>
       </c>
       <c r="C152" t="s">
@@ -5229,11 +5246,11 @@
         <v>0.86352040816326536</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45840</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>3</v>
       </c>
       <c r="C153" t="s">
@@ -5260,11 +5277,11 @@
         <v>0.87917329093799679</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45840</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>3</v>
       </c>
       <c r="C154" t="s">
@@ -5291,11 +5308,11 @@
         <v>0.83542857142857141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45840</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155">
         <v>3</v>
       </c>
       <c r="C155" t="s">
@@ -5322,11 +5339,11 @@
         <v>0.85234014502307187</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45840</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156">
         <v>3</v>
       </c>
       <c r="C156" t="s">
@@ -5353,11 +5370,11 @@
         <v>0.84556182657773227</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45843</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157">
         <v>3</v>
       </c>
       <c r="C157" t="s">
@@ -5384,11 +5401,11 @@
         <v>0.86531130876747142</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45843</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158">
         <v>3</v>
       </c>
       <c r="C158" t="s">
@@ -5415,11 +5432,11 @@
         <v>0.90732265446224258</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45843</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159">
         <v>3</v>
       </c>
       <c r="C159" t="s">
@@ -5446,11 +5463,11 @@
         <v>0.86324786324786329</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45843</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>3</v>
       </c>
       <c r="C160" t="s">
@@ -5477,11 +5494,11 @@
         <v>0.8502857142857142</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45843</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>3</v>
       </c>
       <c r="C161" t="s">
@@ -5508,11 +5525,11 @@
         <v>0.88871139510117159</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45843</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>3</v>
       </c>
       <c r="C162" t="s">
@@ -5539,11 +5556,11 @@
         <v>0.87602459016393452</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45843</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163">
         <v>3</v>
       </c>
       <c r="C163" t="s">
@@ -5570,11 +5587,11 @@
         <v>0.89167883211678833</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45843</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164">
         <v>3</v>
       </c>
       <c r="C164" t="s">
@@ -5601,11 +5618,11 @@
         <v>0.86877828054298634</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45843</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165">
         <v>3</v>
       </c>
       <c r="C165" t="s">
@@ -5632,11 +5649,11 @@
         <v>0.8798017348203222</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45843</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>3</v>
       </c>
       <c r="C166" t="s">
@@ -5663,11 +5680,11 @@
         <v>0.88344988344988351</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45843</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>3</v>
       </c>
       <c r="C167" t="s">
@@ -5694,11 +5711,11 @@
         <v>0.85295743504698729</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45843</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>3</v>
       </c>
       <c r="C168" t="s">
@@ -5725,11 +5742,11 @@
         <v>0.85630784218217237</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45843</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>3</v>
       </c>
       <c r="C169" t="s">
@@ -5756,11 +5773,11 @@
         <v>0.8491428571428572</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45843</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170">
         <v>3</v>
       </c>
       <c r="C170" t="s">
@@ -5787,11 +5804,11 @@
         <v>0.84309623430962344</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45843</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171">
         <v>3</v>
       </c>
       <c r="C171" t="s">
@@ -5818,11 +5835,11 @@
         <v>0.87751371115173682</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45843</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172">
         <v>3</v>
       </c>
       <c r="C172" t="s">
@@ -5849,11 +5866,11 @@
         <v>0.90967153284671531</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>45843</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173">
         <v>3</v>
       </c>
       <c r="C173" t="s">
@@ -5880,11 +5897,11 @@
         <v>0.87616990640748749</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>45843</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174">
         <v>3</v>
       </c>
       <c r="C174" t="s">
@@ -5911,11 +5928,11 @@
         <v>0.89018691588785048</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>45843</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>3</v>
       </c>
       <c r="C175" t="s">
@@ -5942,11 +5959,11 @@
         <v>0.84406438631790748</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>45843</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>3</v>
       </c>
       <c r="C176" t="s">
@@ -5973,11 +5990,11 @@
         <v>0.84318766066838047</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>45843</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177">
         <v>3</v>
       </c>
       <c r="C177" t="s">
@@ -6004,11 +6021,11 @@
         <v>0.94649446494464939</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>45843</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178">
         <v>3</v>
       </c>
       <c r="C178" t="s">
@@ -6035,11 +6052,11 @@
         <v>0.88014981273408244</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>45843</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179">
         <v>3</v>
       </c>
       <c r="C179" t="s">
@@ -6066,11 +6083,11 @@
         <v>0.85199240986717262</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>45843</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180">
         <v>3</v>
       </c>
       <c r="C180" t="s">
@@ -6097,11 +6114,11 @@
         <v>0.91970802919708028</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>45843</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181">
         <v>3</v>
       </c>
       <c r="C181" t="s">
@@ -6128,11 +6145,11 @@
         <v>0.90464240903387705</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>45843</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182">
         <v>3</v>
       </c>
       <c r="C182" t="s">
@@ -6159,11 +6176,11 @@
         <v>0.90952955367913146</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>45843</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183">
         <v>3</v>
       </c>
       <c r="C183" t="s">
@@ -6190,11 +6207,11 @@
         <v>0.86598812553011029</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>45843</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184">
         <v>3</v>
       </c>
       <c r="C184" t="s">
@@ -6221,11 +6238,11 @@
         <v>0.84197828709288292</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>45843</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185">
         <v>3</v>
       </c>
       <c r="C185" t="s">
@@ -6252,11 +6269,11 @@
         <v>0.91116173120728938</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>45843</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186">
         <v>3</v>
       </c>
       <c r="C186" t="s">
@@ -6283,11 +6300,11 @@
         <v>0.80155642023346296</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45799</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" t="s">
@@ -6303,11 +6320,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>45799</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
@@ -6323,11 +6340,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>45799</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189">
         <v>2</v>
       </c>
       <c r="C189" t="s">
@@ -6343,11 +6360,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>45799</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" t="s">
@@ -6363,11 +6380,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>45799</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>2</v>
       </c>
       <c r="C191" t="s">
@@ -6383,11 +6400,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>45799</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192">
         <v>2</v>
       </c>
       <c r="C192" t="s">
@@ -6403,11 +6420,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45799</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193">
         <v>2</v>
       </c>
       <c r="C193" t="s">
@@ -6423,11 +6440,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45799</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
@@ -6443,11 +6460,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>45799</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195">
         <v>2</v>
       </c>
       <c r="C195" t="s">
@@ -6463,11 +6480,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>45799</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196">
         <v>2</v>
       </c>
       <c r="C196" t="s">
@@ -6483,11 +6500,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>45799</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197">
         <v>2</v>
       </c>
       <c r="C197" t="s">
@@ -6503,11 +6520,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>45799</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198">
         <v>2</v>
       </c>
       <c r="C198" t="s">
@@ -6523,11 +6540,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>45799</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199">
         <v>2</v>
       </c>
       <c r="C199" t="s">
@@ -6543,11 +6560,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>45799</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200">
         <v>2</v>
       </c>
       <c r="C200" t="s">
@@ -6563,11 +6580,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>45799</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201">
         <v>2</v>
       </c>
       <c r="C201" t="s">
@@ -6583,11 +6600,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>45800</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202">
         <v>2</v>
       </c>
       <c r="C202" t="s">
@@ -6603,11 +6620,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>45800</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203">
         <v>2</v>
       </c>
       <c r="C203" t="s">
@@ -6623,11 +6640,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>45800</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204">
         <v>2</v>
       </c>
       <c r="C204" t="s">
@@ -6643,11 +6660,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>45800</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205">
         <v>2</v>
       </c>
       <c r="C205" t="s">
@@ -6663,11 +6680,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45800</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206">
         <v>2</v>
       </c>
       <c r="C206" t="s">
@@ -6683,11 +6700,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45800</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207">
         <v>2</v>
       </c>
       <c r="C207" t="s">
@@ -6703,11 +6720,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45800</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208">
         <v>2</v>
       </c>
       <c r="C208" t="s">
@@ -6723,11 +6740,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45800</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209">
         <v>2</v>
       </c>
       <c r="C209" t="s">
@@ -6746,11 +6763,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45800</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210">
         <v>2</v>
       </c>
       <c r="C210" t="s">
@@ -6766,11 +6783,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45800</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211">
         <v>2</v>
       </c>
       <c r="C211" t="s">
@@ -6786,11 +6803,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45800</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212">
         <v>2</v>
       </c>
       <c r="C212" t="s">
@@ -6806,11 +6823,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45800</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213">
         <v>2</v>
       </c>
       <c r="C213" t="s">
@@ -6826,11 +6843,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45800</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214">
         <v>2</v>
       </c>
       <c r="C214" t="s">
@@ -6846,11 +6863,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45800</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215">
         <v>2</v>
       </c>
       <c r="C215" t="s">
@@ -6866,11 +6883,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45800</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216">
         <v>2</v>
       </c>
       <c r="C216" t="s">
@@ -6886,11 +6903,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45800</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217">
         <v>2</v>
       </c>
       <c r="C217" t="s">
@@ -6906,11 +6923,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45800</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218">
         <v>2</v>
       </c>
       <c r="C218" t="s">
@@ -6926,11 +6943,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45800</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219">
         <v>2</v>
       </c>
       <c r="C219" t="s">
@@ -6946,11 +6963,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45800</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220">
         <v>2</v>
       </c>
       <c r="C220" t="s">
@@ -6966,11 +6983,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45800</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221">
         <v>2</v>
       </c>
       <c r="C221" t="s">
@@ -6986,11 +7003,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45800</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222">
         <v>2</v>
       </c>
       <c r="C222" t="s">
@@ -7006,11 +7023,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45800</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223">
         <v>2</v>
       </c>
       <c r="C223" t="s">
@@ -7026,11 +7043,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45800</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224">
         <v>2</v>
       </c>
       <c r="C224" t="s">
@@ -7046,11 +7063,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45800</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225">
         <v>2</v>
       </c>
       <c r="C225" t="s">
@@ -7066,11 +7083,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45800</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226">
         <v>2</v>
       </c>
       <c r="C226" t="s">
@@ -7086,11 +7103,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45800</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227">
         <v>2</v>
       </c>
       <c r="C227" t="s">
@@ -7106,11 +7123,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45800</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228">
         <v>2</v>
       </c>
       <c r="C228" t="s">
@@ -7126,11 +7143,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45800</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229">
         <v>2</v>
       </c>
       <c r="C229" t="s">
@@ -7146,11 +7163,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45800</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230">
         <v>2</v>
       </c>
       <c r="C230" t="s">
@@ -7166,11 +7183,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>45913</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231">
         <v>4</v>
       </c>
       <c r="C231" t="s">
@@ -7186,11 +7203,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>45913</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232">
         <v>4</v>
       </c>
       <c r="C232" t="s">
@@ -7206,11 +7223,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>45913</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233">
         <v>4</v>
       </c>
       <c r="C233" t="s">
@@ -7226,11 +7243,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>45913</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234">
         <v>4</v>
       </c>
       <c r="C234" t="s">
@@ -7246,11 +7263,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>45913</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235">
         <v>4</v>
       </c>
       <c r="C235" t="s">
@@ -7266,11 +7283,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>45913</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236">
         <v>4</v>
       </c>
       <c r="C236" t="s">
@@ -7300,39 +7317,39 @@
       <selection activeCell="J15" sqref="J15:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J15">
         <v>6.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J16">
         <v>2.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17">
         <v>7.5900000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18">
         <v>2.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19">
         <v>2.7399999999999998E-3</v>
       </c>
